--- a/data/scheduling_DNN/predict/0.1/result5.xlsx
+++ b/data/scheduling_DNN/predict/0.1/result5.xlsx
@@ -570,10 +570,10 @@
         <v>1.153443098068237</v>
       </c>
       <c r="V2" t="n">
-        <v>0.5019413232803345</v>
+        <v>0.5023239850997925</v>
       </c>
       <c r="W2" t="n">
-        <v>0.4244545698165894</v>
+        <v>0.4239560961723328</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -641,10 +641,10 @@
         <v>0.8832719326019287</v>
       </c>
       <c r="V3" t="n">
-        <v>0.3790062367916107</v>
+        <v>0.4952842593193054</v>
       </c>
       <c r="W3" t="n">
-        <v>0.2542838752269745</v>
+        <v>0.1505344361066818</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -712,10 +712,10 @@
         <v>1.120343923568726</v>
       </c>
       <c r="V4" t="n">
-        <v>0.6487832069396973</v>
+        <v>0.4758710861206055</v>
       </c>
       <c r="W4" t="n">
-        <v>0.2223695069551468</v>
+        <v>0.4153452515602112</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -783,10 +783,10 @@
         <v>0.9491100311279297</v>
       </c>
       <c r="V5" t="n">
-        <v>0.7464801073074341</v>
+        <v>0.507068932056427</v>
       </c>
       <c r="W5" t="n">
-        <v>0.04105888679623604</v>
+        <v>0.1954003274440765</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -854,10 +854,10 @@
         <v>0.9237239360809326</v>
       </c>
       <c r="V6" t="n">
-        <v>0.4585598111152649</v>
+        <v>0.9826852083206177</v>
       </c>
       <c r="W6" t="n">
-        <v>0.2163776606321335</v>
+        <v>0.003476431593298912</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -925,10 +925,10 @@
         <v>0.9247751235961914</v>
       </c>
       <c r="V7" t="n">
-        <v>0.6585533618927002</v>
+        <v>0.5519543886184692</v>
       </c>
       <c r="W7" t="n">
-        <v>0.07087402790784836</v>
+        <v>0.1389953047037125</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -996,10 +996,10 @@
         <v>0.9463999271392822</v>
       </c>
       <c r="V8" t="n">
-        <v>0.7248722314834595</v>
+        <v>0.8686948418617249</v>
       </c>
       <c r="W8" t="n">
-        <v>0.04907451942563057</v>
+        <v>0.006038080435246229</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1067,10 +1067,10 @@
         <v>0.8976900577545166</v>
       </c>
       <c r="V9" t="n">
-        <v>0.6213141679763794</v>
+        <v>0.9339878559112549</v>
       </c>
       <c r="W9" t="n">
-        <v>0.07638363540172577</v>
+        <v>0.001317530171945691</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1138,10 +1138,10 @@
         <v>0.899055004119873</v>
       </c>
       <c r="V10" t="n">
-        <v>0.4576366245746613</v>
+        <v>0.9900103807449341</v>
       </c>
       <c r="W10" t="n">
-        <v>0.1948501914739609</v>
+        <v>0.008272880688309669</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1209,10 +1209,10 @@
         <v>0.9092819690704346</v>
       </c>
       <c r="V11" t="n">
-        <v>0.6245588064193726</v>
+        <v>0.9275965094566345</v>
       </c>
       <c r="W11" t="n">
-        <v>0.0810672789812088</v>
+        <v>0.0003354224027134478</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1280,10 +1280,10 @@
         <v>0.9274308681488037</v>
       </c>
       <c r="V12" t="n">
-        <v>0.4360229969024658</v>
+        <v>0.5318230986595154</v>
       </c>
       <c r="W12" t="n">
-        <v>0.2414816915988922</v>
+        <v>0.1565055102109909</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1351,10 +1351,10 @@
         <v>0.9530508518218994</v>
       </c>
       <c r="V13" t="n">
-        <v>0.4575155675411224</v>
+        <v>0.9620687961578369</v>
       </c>
       <c r="W13" t="n">
-        <v>0.2455552220344543</v>
+        <v>8.132332004606724e-05</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1422,10 +1422,10 @@
         <v>0.9429469108581543</v>
       </c>
       <c r="V14" t="n">
-        <v>0.812067985534668</v>
+        <v>0.9136298298835754</v>
       </c>
       <c r="W14" t="n">
-        <v>0.01712929271161556</v>
+        <v>0.0008594912360422313</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1493,10 +1493,10 @@
         <v>0.9495279788970947</v>
       </c>
       <c r="V15" t="n">
-        <v>0.436027318239212</v>
+        <v>0.5518954396247864</v>
       </c>
       <c r="W15" t="n">
-        <v>0.2636829614639282</v>
+        <v>0.1581116318702698</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1564,10 +1564,10 @@
         <v>0.994163990020752</v>
       </c>
       <c r="V16" t="n">
-        <v>0.4576262831687927</v>
+        <v>0.523070752620697</v>
       </c>
       <c r="W16" t="n">
-        <v>0.287872701883316</v>
+        <v>0.2219288349151611</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1635,10 +1635,10 @@
         <v>0.8756430149078369</v>
       </c>
       <c r="V17" t="n">
-        <v>0.4644940793514252</v>
+        <v>0.9352418780326843</v>
       </c>
       <c r="W17" t="n">
-        <v>0.1690434515476227</v>
+        <v>0.00355202448554337</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1706,10 +1706,10 @@
         <v>0.8962810039520264</v>
       </c>
       <c r="V18" t="n">
-        <v>0.4487207531929016</v>
+        <v>0.5259230136871338</v>
       </c>
       <c r="W18" t="n">
-        <v>0.2003101706504822</v>
+        <v>0.1371650397777557</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1777,10 +1777,10 @@
         <v>0.9168720245361328</v>
       </c>
       <c r="V19" t="n">
-        <v>0.43533855676651</v>
+        <v>0.8837742805480957</v>
       </c>
       <c r="W19" t="n">
-        <v>0.231874480843544</v>
+        <v>0.001095460611395538</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1848,10 +1848,10 @@
         <v>0.872960090637207</v>
       </c>
       <c r="V20" t="n">
-        <v>0.6259042024612427</v>
+        <v>0.9552268385887146</v>
       </c>
       <c r="W20" t="n">
-        <v>0.0610366128385067</v>
+        <v>0.0067678177729249</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1919,10 +1919,10 @@
         <v>0.884026050567627</v>
       </c>
       <c r="V21" t="n">
-        <v>0.4356054365634918</v>
+        <v>0.5318841338157654</v>
       </c>
       <c r="W21" t="n">
-        <v>0.2010810524225235</v>
+        <v>0.1240039318799973</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -1990,10 +1990,10 @@
         <v>0.5440189838409424</v>
       </c>
       <c r="V22" t="n">
-        <v>0.4362451732158661</v>
+        <v>0.8685360550880432</v>
       </c>
       <c r="W22" t="n">
-        <v>0.01161519438028336</v>
+        <v>0.1053113266825676</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2061,10 +2061,10 @@
         <v>0.5947408676147461</v>
       </c>
       <c r="V23" t="n">
-        <v>0.4575503170490265</v>
+        <v>0.5408933758735657</v>
       </c>
       <c r="W23" t="n">
-        <v>0.01882124692201614</v>
+        <v>0.002899552462622523</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2132,10 +2132,10 @@
         <v>0.5421128273010254</v>
       </c>
       <c r="V24" t="n">
-        <v>0.4360257685184479</v>
+        <v>0.8656887412071228</v>
       </c>
       <c r="W24" t="n">
-        <v>0.01125446427613497</v>
+        <v>0.1047013700008392</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2203,10 +2203,10 @@
         <v>0.5303318500518799</v>
       </c>
       <c r="V25" t="n">
-        <v>0.4757482409477234</v>
+        <v>0.9056115746498108</v>
       </c>
       <c r="W25" t="n">
-        <v>0.002979370299726725</v>
+        <v>0.1408348679542542</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2274,10 +2274,10 @@
         <v>0.5387139320373535</v>
       </c>
       <c r="V26" t="n">
-        <v>0.4422093331813812</v>
+        <v>0.5327175855636597</v>
       </c>
       <c r="W26" t="n">
-        <v>0.009313137270510197</v>
+        <v>3.595617090468295e-05</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2345,10 +2345,10 @@
         <v>0.5212831497192383</v>
       </c>
       <c r="V27" t="n">
-        <v>0.5035362839698792</v>
+        <v>0.9408966302871704</v>
       </c>
       <c r="W27" t="n">
-        <v>0.0003149512340314686</v>
+        <v>0.1760754734277725</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2416,10 +2416,10 @@
         <v>0.529249906539917</v>
       </c>
       <c r="V28" t="n">
-        <v>0.6245107650756836</v>
+        <v>0.9281586408615112</v>
       </c>
       <c r="W28" t="n">
-        <v>0.00907463114708662</v>
+        <v>0.1591281741857529</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2487,10 +2487,10 @@
         <v>0.5367741584777832</v>
       </c>
       <c r="V29" t="n">
-        <v>0.4360276758670807</v>
+        <v>0.4760370850563049</v>
       </c>
       <c r="W29" t="n">
-        <v>0.01014985330402851</v>
+        <v>0.003688992001116276</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2558,10 +2558,10 @@
         <v>0.5257649421691895</v>
       </c>
       <c r="V30" t="n">
-        <v>0.5035736560821533</v>
+        <v>0.4771164059638977</v>
       </c>
       <c r="W30" t="n">
-        <v>0.0004924531676806509</v>
+        <v>0.002366680186241865</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2629,10 +2629,10 @@
         <v>0.5164339542388916</v>
       </c>
       <c r="V31" t="n">
-        <v>0.3906354904174805</v>
+        <v>0.9573094248771667</v>
       </c>
       <c r="W31" t="n">
-        <v>0.01582525297999382</v>
+        <v>0.1943711787462234</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2700,10 +2700,10 @@
         <v>0.6232740879058838</v>
       </c>
       <c r="V32" t="n">
-        <v>0.5040199756622314</v>
+        <v>0.5521610975265503</v>
       </c>
       <c r="W32" t="n">
-        <v>0.0142215434461832</v>
+        <v>0.005057057365775108</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2771,10 +2771,10 @@
         <v>0.5133988857269287</v>
       </c>
       <c r="V33" t="n">
-        <v>0.3788739442825317</v>
+        <v>0.5124715566635132</v>
       </c>
       <c r="W33" t="n">
-        <v>0.01809695921838284</v>
+        <v>8.599391776442644e-07</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2842,10 +2842,10 @@
         <v>0.5330741405487061</v>
       </c>
       <c r="V34" t="n">
-        <v>0.3788443207740784</v>
+        <v>0.5517785549163818</v>
       </c>
       <c r="W34" t="n">
-        <v>0.02378683723509312</v>
+        <v>0.0003498551086522639</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2913,10 +2913,10 @@
         <v>0.5175430774688721</v>
       </c>
       <c r="V35" t="n">
-        <v>0.480756551027298</v>
+        <v>0.5337461233139038</v>
       </c>
       <c r="W35" t="n">
-        <v>0.001353248488157988</v>
+        <v>0.0002625386987347156</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -2984,10 +2984,10 @@
         <v>0.517164945602417</v>
       </c>
       <c r="V36" t="n">
-        <v>0.561543881893158</v>
+        <v>0.5317966938018799</v>
       </c>
       <c r="W36" t="n">
-        <v>0.0019694899674505</v>
+        <v>0.0002140880533261225</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3055,10 +3055,10 @@
         <v>0.5153119564056396</v>
       </c>
       <c r="V37" t="n">
-        <v>0.4955423474311829</v>
+        <v>0.9802093505859375</v>
       </c>
       <c r="W37" t="n">
-        <v>0.0003908374346792698</v>
+        <v>0.2161295861005783</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3126,10 +3126,10 @@
         <v>0.515822172164917</v>
       </c>
       <c r="V38" t="n">
-        <v>0.6437066793441772</v>
+        <v>0.490041196346283</v>
       </c>
       <c r="W38" t="n">
-        <v>0.01635444723069668</v>
+        <v>0.000664658728055656</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3197,10 +3197,10 @@
         <v>0.5689020156860352</v>
       </c>
       <c r="V39" t="n">
-        <v>0.3783778548240662</v>
+        <v>0.5318315625190735</v>
       </c>
       <c r="W39" t="n">
-        <v>0.0362994559109211</v>
+        <v>0.001374218496493995</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3268,10 +3268,10 @@
         <v>0.5207960605621338</v>
       </c>
       <c r="V40" t="n">
-        <v>0.5474125146865845</v>
+        <v>0.8791196942329407</v>
       </c>
       <c r="W40" t="n">
-        <v>0.0007084356038831174</v>
+        <v>0.1283958256244659</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3339,10 +3339,10 @@
         <v>0.5164890289306641</v>
       </c>
       <c r="V41" t="n">
-        <v>0.5654192566871643</v>
+        <v>0.4880973696708679</v>
       </c>
       <c r="W41" t="n">
-        <v>0.002394167240709066</v>
+        <v>0.0008060862892307341</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3410,10 +3410,10 @@
         <v>0.3967301845550537</v>
       </c>
       <c r="V42" t="n">
-        <v>0.6731165647506714</v>
+        <v>0.9025562405586243</v>
       </c>
       <c r="W42" t="n">
-        <v>0.07638943195343018</v>
+        <v>0.2558600008487701</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3481,10 +3481,10 @@
         <v>0.4158449172973633</v>
       </c>
       <c r="V43" t="n">
-        <v>0.6437778472900391</v>
+        <v>0.9803627133369446</v>
       </c>
       <c r="W43" t="n">
-        <v>0.05195342004299164</v>
+        <v>0.3186803460121155</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3552,10 +3552,10 @@
         <v>0.3887760639190674</v>
       </c>
       <c r="V44" t="n">
-        <v>0.8167376518249512</v>
+        <v>0.4773775339126587</v>
       </c>
       <c r="W44" t="n">
-        <v>0.1831511259078979</v>
+        <v>0.007850220426917076</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -3623,10 +3623,10 @@
         <v>0.3917410373687744</v>
       </c>
       <c r="V45" t="n">
-        <v>0.4962058663368225</v>
+        <v>0.5317651033401489</v>
       </c>
       <c r="W45" t="n">
-        <v>0.01091290079057217</v>
+        <v>0.01960673928260803</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -3694,10 +3694,10 @@
         <v>0.3879590034484863</v>
       </c>
       <c r="V46" t="n">
-        <v>0.5760806798934937</v>
+        <v>0.504751443862915</v>
       </c>
       <c r="W46" t="n">
-        <v>0.03538976609706879</v>
+        <v>0.01364047452807426</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -3765,10 +3765,10 @@
         <v>0.3983170986175537</v>
       </c>
       <c r="V47" t="n">
-        <v>0.4357438981533051</v>
+        <v>0.4917399287223816</v>
       </c>
       <c r="W47" t="n">
-        <v>0.001400765380822122</v>
+        <v>0.008727825246751308</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -3836,10 +3836,10 @@
         <v>0.3900899887084961</v>
       </c>
       <c r="V48" t="n">
-        <v>0.5017416477203369</v>
+        <v>0.9054586887359619</v>
       </c>
       <c r="W48" t="n">
-        <v>0.01246609259396791</v>
+        <v>0.2656048834323883</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -3907,10 +3907,10 @@
         <v>0.4043679237365723</v>
       </c>
       <c r="V49" t="n">
-        <v>0.5595355629920959</v>
+        <v>0.4728814959526062</v>
       </c>
       <c r="W49" t="n">
-        <v>0.02407699637115002</v>
+        <v>0.004694109782576561</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -3978,10 +3978,10 @@
         <v>0.388634204864502</v>
       </c>
       <c r="V50" t="n">
-        <v>0.6585376262664795</v>
+        <v>0.476650595664978</v>
       </c>
       <c r="W50" t="n">
-        <v>0.07284785807132721</v>
+        <v>0.007746885064989328</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -4049,10 +4049,10 @@
         <v>0.3911960124969482</v>
       </c>
       <c r="V51" t="n">
-        <v>0.6241047382354736</v>
+        <v>0.9043123126029968</v>
       </c>
       <c r="W51" t="n">
-        <v>0.05424647405743599</v>
+        <v>0.2632883489131927</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -4120,10 +4120,10 @@
         <v>0.3972728252410889</v>
       </c>
       <c r="V52" t="n">
-        <v>0.5687597990036011</v>
+        <v>0.9315034151077271</v>
       </c>
       <c r="W52" t="n">
-        <v>0.02940778248012066</v>
+        <v>0.2854023277759552</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -4191,10 +4191,10 @@
         <v>0.3955469131469727</v>
       </c>
       <c r="V53" t="n">
-        <v>0.504918098449707</v>
+        <v>0.4779019951820374</v>
       </c>
       <c r="W53" t="n">
-        <v>0.01196205615997314</v>
+        <v>0.006782359443604946</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -4262,10 +4262,10 @@
         <v>0.3941268920898438</v>
       </c>
       <c r="V54" t="n">
-        <v>0.4538178741931915</v>
+        <v>0.8923336267471313</v>
       </c>
       <c r="W54" t="n">
-        <v>0.003563013393431902</v>
+        <v>0.2482099533081055</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -4333,10 +4333,10 @@
         <v>0.4272170066833496</v>
       </c>
       <c r="V55" t="n">
-        <v>0.5761919021606445</v>
+        <v>0.5603152513504028</v>
       </c>
       <c r="W55" t="n">
-        <v>0.02219351939857006</v>
+        <v>0.01771514303982258</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -4404,10 +4404,10 @@
         <v>0.3860900402069092</v>
       </c>
       <c r="V56" t="n">
-        <v>0.4578924179077148</v>
+        <v>0.4831019639968872</v>
       </c>
       <c r="W56" t="n">
-        <v>0.005155581515282393</v>
+        <v>0.009411313571035862</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -4475,10 +4475,10 @@
         <v>0.4071700572967529</v>
       </c>
       <c r="V57" t="n">
-        <v>0.618610143661499</v>
+        <v>0.5025676488876343</v>
       </c>
       <c r="W57" t="n">
-        <v>0.04470691084861755</v>
+        <v>0.009100700728595257</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -4546,10 +4546,10 @@
         <v>0.3896307945251465</v>
       </c>
       <c r="V58" t="n">
-        <v>0.5533381700515747</v>
+        <v>0.8823011517524719</v>
       </c>
       <c r="W58" t="n">
-        <v>0.02680010534822941</v>
+        <v>0.2427240759134293</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -4617,10 +4617,10 @@
         <v>0.3943150043487549</v>
       </c>
       <c r="V59" t="n">
-        <v>0.5489695072174072</v>
+        <v>0.9242838621139526</v>
       </c>
       <c r="W59" t="n">
-        <v>0.02391801588237286</v>
+        <v>0.2808669805526733</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -4688,10 +4688,10 @@
         <v>0.7000949382781982</v>
       </c>
       <c r="V60" t="n">
-        <v>0.4357521533966064</v>
+        <v>0.5590011477470398</v>
       </c>
       <c r="W60" t="n">
-        <v>0.06987711042165756</v>
+        <v>0.01990745775401592</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -4759,10 +4759,10 @@
         <v>0.432642936706543</v>
       </c>
       <c r="V61" t="n">
-        <v>0.6212022304534912</v>
+        <v>0.8903424143791199</v>
       </c>
       <c r="W61" t="n">
-        <v>0.03555460646748543</v>
+        <v>0.2094888091087341</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -4830,10 +4830,10 @@
         <v>1.121154069900513</v>
       </c>
       <c r="V62" t="n">
-        <v>0.4663760364055634</v>
+        <v>0.8775762319564819</v>
       </c>
       <c r="W62" t="n">
-        <v>0.4287342429161072</v>
+        <v>0.05933016166090965</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -4901,10 +4901,10 @@
         <v>0.8743460178375244</v>
       </c>
       <c r="V63" t="n">
-        <v>0.4584780037403107</v>
+        <v>0.9485801458358765</v>
       </c>
       <c r="W63" t="n">
-        <v>0.1729461997747421</v>
+        <v>0.00551070598885417</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -4972,10 +4972,10 @@
         <v>0.8658051490783691</v>
       </c>
       <c r="V64" t="n">
-        <v>0.5767316818237305</v>
+        <v>0.4961714744567871</v>
       </c>
       <c r="W64" t="n">
-        <v>0.08356346935033798</v>
+        <v>0.1366290599107742</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -5043,10 +5043,10 @@
         <v>0.869359016418457</v>
       </c>
       <c r="V65" t="n">
-        <v>0.7337663173675537</v>
+        <v>0.4783028960227966</v>
       </c>
       <c r="W65" t="n">
-        <v>0.0183853805065155</v>
+        <v>0.1529248952865601</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -5114,10 +5114,10 @@
         <v>0.9087719917297363</v>
       </c>
       <c r="V66" t="n">
-        <v>0.5526103377342224</v>
+        <v>0.4777440428733826</v>
       </c>
       <c r="W66" t="n">
-        <v>0.1268511265516281</v>
+        <v>0.185785099864006</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -5185,10 +5185,10 @@
         <v>0.8689398765563965</v>
       </c>
       <c r="V67" t="n">
-        <v>0.5039443373680115</v>
+        <v>0.5125977993011475</v>
       </c>
       <c r="W67" t="n">
-        <v>0.1332217454910278</v>
+        <v>0.1269796788692474</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -5256,10 +5256,10 @@
         <v>0.9179859161376953</v>
       </c>
       <c r="V68" t="n">
-        <v>0.6240432262420654</v>
+        <v>0.4845936298370361</v>
       </c>
       <c r="W68" t="n">
-        <v>0.08640230447053909</v>
+        <v>0.1878288686275482</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -5327,10 +5327,10 @@
         <v>0.8693699836730957</v>
       </c>
       <c r="V69" t="n">
-        <v>0.6175475120544434</v>
+        <v>0.5023259520530701</v>
       </c>
       <c r="W69" t="n">
-        <v>0.0634145587682724</v>
+        <v>0.1347213238477707</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -5398,10 +5398,10 @@
         <v>0.8722019195556641</v>
       </c>
       <c r="V70" t="n">
-        <v>0.5087136030197144</v>
+        <v>0.4788448810577393</v>
       </c>
       <c r="W70" t="n">
-        <v>0.1321237534284592</v>
+        <v>0.1547297537326813</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -5469,10 +5469,10 @@
         <v>0.868934154510498</v>
       </c>
       <c r="V71" t="n">
-        <v>0.4749151468276978</v>
+        <v>0.9344452023506165</v>
       </c>
       <c r="W71" t="n">
-        <v>0.1552509814500809</v>
+        <v>0.004291697405278683</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -5540,10 +5540,10 @@
         <v>0.8890061378479004</v>
       </c>
       <c r="V72" t="n">
-        <v>0.3823255002498627</v>
+        <v>0.5338975191116333</v>
       </c>
       <c r="W72" t="n">
-        <v>0.2567252516746521</v>
+        <v>0.1261021345853806</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -5611,10 +5611,10 @@
         <v>0.870305061340332</v>
       </c>
       <c r="V73" t="n">
-        <v>0.3901001513004303</v>
+        <v>0.5336360931396484</v>
       </c>
       <c r="W73" t="n">
-        <v>0.2305967509746552</v>
+        <v>0.1133459955453873</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -5682,10 +5682,10 @@
         <v>0.8672559261322021</v>
       </c>
       <c r="V74" t="n">
-        <v>0.4765401184558868</v>
+        <v>0.8817298412322998</v>
       </c>
       <c r="W74" t="n">
-        <v>0.1526588350534439</v>
+        <v>0.0002094942174153402</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -5753,10 +5753,10 @@
         <v>0.8700699806213379</v>
       </c>
       <c r="V75" t="n">
-        <v>0.5659756064414978</v>
+        <v>0.4675739407539368</v>
       </c>
       <c r="W75" t="n">
-        <v>0.09247338771820068</v>
+        <v>0.1620030552148819</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -5824,10 +5824,10 @@
         <v>0.8654501438140869</v>
       </c>
       <c r="V76" t="n">
-        <v>0.3801888823509216</v>
+        <v>0.5121102929115295</v>
       </c>
       <c r="W76" t="n">
-        <v>0.2354784905910492</v>
+        <v>0.1248490512371063</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -5895,10 +5895,10 @@
         <v>0.8937699794769287</v>
       </c>
       <c r="V77" t="n">
-        <v>0.4707243740558624</v>
+        <v>0.5522873997688293</v>
       </c>
       <c r="W77" t="n">
-        <v>0.1789675801992416</v>
+        <v>0.1166103556752205</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -5966,10 +5966,10 @@
         <v>0.8702869415283203</v>
       </c>
       <c r="V78" t="n">
-        <v>0.4361319839954376</v>
+        <v>0.9240490794181824</v>
       </c>
       <c r="W78" t="n">
-        <v>0.1884905248880386</v>
+        <v>0.002890367526561022</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -6037,10 +6037,10 @@
         <v>0.8677799701690674</v>
       </c>
       <c r="V79" t="n">
-        <v>0.4867736101150513</v>
+        <v>0.9100582599639893</v>
       </c>
       <c r="W79" t="n">
-        <v>0.1451658457517624</v>
+        <v>0.00178745377343148</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -6108,10 +6108,10 @@
         <v>0.9472420215606689</v>
       </c>
       <c r="V80" t="n">
-        <v>0.4360113441944122</v>
+        <v>0.5589241981506348</v>
       </c>
       <c r="W80" t="n">
-        <v>0.2613568305969238</v>
+        <v>0.150790736079216</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -6179,10 +6179,10 @@
         <v>0.9327538013458252</v>
       </c>
       <c r="V81" t="n">
-        <v>0.6255437135696411</v>
+        <v>0.5253145098686218</v>
       </c>
       <c r="W81" t="n">
-        <v>0.0943780392408371</v>
+        <v>0.1660067737102509</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -6250,10 +6250,10 @@
         <v>0.5638480186462402</v>
       </c>
       <c r="V82" t="n">
-        <v>0.6256434917449951</v>
+        <v>0.4851831793785095</v>
       </c>
       <c r="W82" t="n">
-        <v>0.00381868053227663</v>
+        <v>0.006188157014548779</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -6321,10 +6321,10 @@
         <v>0.5213959217071533</v>
       </c>
       <c r="V83" t="n">
-        <v>0.4731965661048889</v>
+        <v>0.4727560877799988</v>
       </c>
       <c r="W83" t="n">
-        <v>0.002323177875950933</v>
+        <v>0.002365833381190896</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -6392,10 +6392,10 @@
         <v>0.5184769630432129</v>
       </c>
       <c r="V84" t="n">
-        <v>0.6258492469787598</v>
+        <v>0.9663464426994324</v>
       </c>
       <c r="W84" t="n">
-        <v>0.01152880769222975</v>
+        <v>0.2005870640277863</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -6463,10 +6463,10 @@
         <v>0.5217580795288086</v>
       </c>
       <c r="V85" t="n">
-        <v>0.5515128374099731</v>
+        <v>0.9297291040420532</v>
       </c>
       <c r="W85" t="n">
-        <v>0.0008853456238284707</v>
+        <v>0.1664403527975082</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -6534,10 +6534,10 @@
         <v>0.5157489776611328</v>
       </c>
       <c r="V86" t="n">
-        <v>0.6340599060058594</v>
+        <v>0.4666921496391296</v>
       </c>
       <c r="W86" t="n">
-        <v>0.01399747561663389</v>
+        <v>0.002406572457402945</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -6605,10 +6605,10 @@
         <v>0.5259380340576172</v>
       </c>
       <c r="V87" t="n">
-        <v>0.4704041182994843</v>
+        <v>0.4755042195320129</v>
       </c>
       <c r="W87" t="n">
-        <v>0.003084015799686313</v>
+        <v>0.002543569542467594</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -6676,10 +6676,10 @@
         <v>0.5170691013336182</v>
       </c>
       <c r="V88" t="n">
-        <v>0.6257109642028809</v>
+        <v>0.4777177572250366</v>
       </c>
       <c r="W88" t="n">
-        <v>0.01180305425077677</v>
+        <v>0.001548528322018683</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -6747,10 +6747,10 @@
         <v>0.5175609588623047</v>
       </c>
       <c r="V89" t="n">
-        <v>0.7471864223480225</v>
+        <v>0.478057324886322</v>
       </c>
       <c r="W89" t="n">
-        <v>0.05272785201668739</v>
+        <v>0.00156053714454174</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -6818,10 +6818,10 @@
         <v>0.521183967590332</v>
       </c>
       <c r="V90" t="n">
-        <v>0.4986482858657837</v>
+        <v>0.4778705239295959</v>
       </c>
       <c r="W90" t="n">
-        <v>0.0005078569520264864</v>
+        <v>0.001876054448075593</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -6889,10 +6889,10 @@
         <v>0.5180251598358154</v>
       </c>
       <c r="V91" t="n">
-        <v>0.8167510032653809</v>
+        <v>0.4903028607368469</v>
       </c>
       <c r="W91" t="n">
-        <v>0.08923713117837906</v>
+        <v>0.0007685258751735091</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -6960,10 +6960,10 @@
         <v>0.5433800220489502</v>
       </c>
       <c r="V92" t="n">
-        <v>0.4360217452049255</v>
+        <v>0.4992558360099792</v>
       </c>
       <c r="W92" t="n">
-        <v>0.01152579952031374</v>
+        <v>0.001946943812072277</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -7031,10 +7031,10 @@
         <v>0.5224380493164062</v>
       </c>
       <c r="V93" t="n">
-        <v>0.5730562210083008</v>
+        <v>0.532386839389801</v>
       </c>
       <c r="W93" t="n">
-        <v>0.002562199253588915</v>
+        <v>9.897842392092571e-05</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -7102,10 +7102,10 @@
         <v>0.5196349620819092</v>
       </c>
       <c r="V94" t="n">
-        <v>0.8119727373123169</v>
+        <v>0.9268399477005005</v>
       </c>
       <c r="W94" t="n">
-        <v>0.08546137809753418</v>
+        <v>0.1658159047365189</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -7173,10 +7173,10 @@
         <v>0.5223469734191895</v>
       </c>
       <c r="V95" t="n">
-        <v>0.473088413476944</v>
+        <v>0.5584583878517151</v>
       </c>
       <c r="W95" t="n">
-        <v>0.002426405670121312</v>
+        <v>0.001304034260101616</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -7244,10 +7244,10 @@
         <v>0.5203309059143066</v>
       </c>
       <c r="V96" t="n">
-        <v>0.6278610229492188</v>
+        <v>0.4851813316345215</v>
       </c>
       <c r="W96" t="n">
-        <v>0.01156272646039724</v>
+        <v>0.001235492527484894</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -7315,10 +7315,10 @@
         <v>0.5738000869750977</v>
       </c>
       <c r="V97" t="n">
-        <v>0.4535927176475525</v>
+        <v>0.5252851843833923</v>
       </c>
       <c r="W97" t="n">
-        <v>0.01444981154054403</v>
+        <v>0.002353695686906576</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -7386,10 +7386,10 @@
         <v>0.5182578563690186</v>
       </c>
       <c r="V98" t="n">
-        <v>0.6248958110809326</v>
+        <v>0.4768622517585754</v>
       </c>
       <c r="W98" t="n">
-        <v>0.01137165352702141</v>
+        <v>0.001713596051558852</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -7457,10 +7457,10 @@
         <v>0.5209400653839111</v>
       </c>
       <c r="V99" t="n">
-        <v>0.5720549821853638</v>
+        <v>0.552278995513916</v>
       </c>
       <c r="W99" t="n">
-        <v>0.0026127346791327</v>
+        <v>0.0009821285493671894</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -7528,10 +7528,10 @@
         <v>0.5182459354400635</v>
       </c>
       <c r="V100" t="n">
-        <v>0.5017546415328979</v>
+        <v>0.4780391454696655</v>
       </c>
       <c r="W100" t="n">
-        <v>0.0002719627809710801</v>
+        <v>0.001616585999727249</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -7599,10 +7599,10 @@
         <v>0.5182578563690186</v>
       </c>
       <c r="V101" t="n">
-        <v>0.5689204931259155</v>
+        <v>0.5025100111961365</v>
       </c>
       <c r="W101" t="n">
-        <v>0.002566702663898468</v>
+        <v>0.000247994641540572</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -7670,10 +7670,10 @@
         <v>0.4032540321350098</v>
       </c>
       <c r="V102" t="n">
-        <v>0.4729442894458771</v>
+        <v>0.5121398568153381</v>
       </c>
       <c r="W102" t="n">
-        <v>0.004856731742620468</v>
+        <v>0.01185612287372351</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -7741,10 +7741,10 @@
         <v>0.3974640369415283</v>
       </c>
       <c r="V103" t="n">
-        <v>0.4356208145618439</v>
+        <v>0.4776265621185303</v>
       </c>
       <c r="W103" t="n">
-        <v>0.001455939724110067</v>
+        <v>0.006426030304282904</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -7812,10 +7812,10 @@
         <v>0.3976988792419434</v>
       </c>
       <c r="V104" t="n">
-        <v>0.476378470659256</v>
+        <v>0.4845101833343506</v>
       </c>
       <c r="W104" t="n">
-        <v>0.006190478336066008</v>
+        <v>0.007536202669143677</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -7883,10 +7883,10 @@
         <v>0.4122550487518311</v>
       </c>
       <c r="V105" t="n">
-        <v>0.56818687915802</v>
+        <v>0.9574918746948242</v>
       </c>
       <c r="W105" t="n">
-        <v>0.02431473508477211</v>
+        <v>0.2972832024097443</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -7954,10 +7954,10 @@
         <v>0.38944411277771</v>
       </c>
       <c r="V106" t="n">
-        <v>0.4658282697200775</v>
+        <v>0.5317089557647705</v>
       </c>
       <c r="W106" t="n">
-        <v>0.005834539420902729</v>
+        <v>0.02023928612470627</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -8025,10 +8025,10 @@
         <v>0.3976330757141113</v>
       </c>
       <c r="V107" t="n">
-        <v>0.5481818318367004</v>
+        <v>0.5033257007598877</v>
       </c>
       <c r="W107" t="n">
-        <v>0.02266492880880833</v>
+        <v>0.01117093116044998</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -8096,10 +8096,10 @@
         <v>0.3871769905090332</v>
       </c>
       <c r="V108" t="n">
-        <v>0.4577591419219971</v>
+        <v>0.5336540937423706</v>
       </c>
       <c r="W108" t="n">
-        <v>0.004981840029358864</v>
+        <v>0.0214555412530899</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -8167,10 +8167,10 @@
         <v>0.3911809921264648</v>
       </c>
       <c r="V109" t="n">
-        <v>0.4357512891292572</v>
+        <v>0.9448142647743225</v>
       </c>
       <c r="W109" t="n">
-        <v>0.001986511284485459</v>
+        <v>0.306509792804718</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -8238,10 +8238,10 @@
         <v>0.388538122177124</v>
       </c>
       <c r="V110" t="n">
-        <v>0.4586285054683685</v>
+        <v>0.5719090700149536</v>
       </c>
       <c r="W110" t="n">
-        <v>0.004912661854177713</v>
+        <v>0.03362490609288216</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -8309,10 +8309,10 @@
         <v>0.3948462009429932</v>
       </c>
       <c r="V111" t="n">
-        <v>0.624285101890564</v>
+        <v>0.4760536551475525</v>
       </c>
       <c r="W111" t="n">
-        <v>0.05264220759272575</v>
+        <v>0.006594650447368622</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -8380,10 +8380,10 @@
         <v>0.4100580215454102</v>
       </c>
       <c r="V112" t="n">
-        <v>0.7384928464889526</v>
+        <v>0.5522804260253906</v>
       </c>
       <c r="W112" t="n">
-        <v>0.1078694313764572</v>
+        <v>0.02022721245884895</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -8451,10 +8451,10 @@
         <v>0.3895299434661865</v>
       </c>
       <c r="V113" t="n">
-        <v>0.5693919658660889</v>
+        <v>0.524933397769928</v>
       </c>
       <c r="W113" t="n">
-        <v>0.03235034644603729</v>
+        <v>0.01833409629762173</v>
       </c>
     </row>
     <row r="114" spans="1:23">
@@ -8522,10 +8522,10 @@
         <v>0.3925120830535889</v>
       </c>
       <c r="V114" t="n">
-        <v>0.6732223033905029</v>
+        <v>0.4951511025428772</v>
       </c>
       <c r="W114" t="n">
-        <v>0.07879822701215744</v>
+        <v>0.01053476799279451</v>
       </c>
     </row>
     <row r="115" spans="1:23">
@@ -8593,10 +8593,10 @@
         <v>0.417625904083252</v>
       </c>
       <c r="V115" t="n">
-        <v>0.4360131323337555</v>
+        <v>0.5336437821388245</v>
       </c>
       <c r="W115" t="n">
-        <v>0.0003380901762284338</v>
+        <v>0.01346014812588692</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -8664,10 +8664,10 @@
         <v>0.3942890167236328</v>
       </c>
       <c r="V116" t="n">
-        <v>0.4203605949878693</v>
+        <v>0.9696474671363831</v>
       </c>
       <c r="W116" t="n">
-        <v>0.0006797271780669689</v>
+        <v>0.3310373425483704</v>
       </c>
     </row>
     <row r="117" spans="1:23">
@@ -8735,10 +8735,10 @@
         <v>0.3931059837341309</v>
       </c>
       <c r="V117" t="n">
-        <v>0.4360207617282867</v>
+        <v>0.880209743976593</v>
       </c>
       <c r="W117" t="n">
-        <v>0.001841678167693317</v>
+        <v>0.2372700721025467</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -8806,10 +8806,10 @@
         <v>0.4110760688781738</v>
       </c>
       <c r="V118" t="n">
-        <v>0.5499672889709473</v>
+        <v>0.9166838526725769</v>
       </c>
       <c r="W118" t="n">
-        <v>0.01929077133536339</v>
+        <v>0.2556392252445221</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -8877,10 +8877,10 @@
         <v>0.3908309936523438</v>
       </c>
       <c r="V119" t="n">
-        <v>0.5551027059555054</v>
+        <v>0.5335856080055237</v>
       </c>
       <c r="W119" t="n">
-        <v>0.02698519453406334</v>
+        <v>0.02037888020277023</v>
       </c>
     </row>
     <row r="120" spans="1:23">
@@ -8948,10 +8948,10 @@
         <v>0.4256229400634766</v>
       </c>
       <c r="V120" t="n">
-        <v>0.5010216236114502</v>
+        <v>0.4903607368469238</v>
       </c>
       <c r="W120" t="n">
-        <v>0.005684961564838886</v>
+        <v>0.004190982319414616</v>
       </c>
     </row>
     <row r="121" spans="1:23">
@@ -9019,10 +9019,10 @@
         <v>0.4440429210662842</v>
       </c>
       <c r="V121" t="n">
-        <v>0.5533048510551453</v>
+        <v>0.4777753353118896</v>
       </c>
       <c r="W121" t="n">
-        <v>0.01193816959857941</v>
+        <v>0.001137875718995929</v>
       </c>
     </row>
     <row r="122" spans="1:23">
@@ -9090,10 +9090,10 @@
         <v>0.8671259880065918</v>
       </c>
       <c r="V122" t="n">
-        <v>0.4713866114616394</v>
+        <v>0.4677795767784119</v>
       </c>
       <c r="W122" t="n">
-        <v>0.1566096544265747</v>
+        <v>0.159477561712265</v>
       </c>
     </row>
     <row r="123" spans="1:23">
@@ -9161,10 +9161,10 @@
         <v>0.8887209892272949</v>
       </c>
       <c r="V123" t="n">
-        <v>0.4579397141933441</v>
+        <v>0.9802343845367432</v>
       </c>
       <c r="W123" t="n">
-        <v>0.1855725049972534</v>
+        <v>0.008374701254069805</v>
       </c>
     </row>
     <row r="124" spans="1:23">
@@ -9232,10 +9232,10 @@
         <v>0.8680651187896729</v>
       </c>
       <c r="V124" t="n">
-        <v>0.6243749856948853</v>
+        <v>0.5507467985153198</v>
       </c>
       <c r="W124" t="n">
-        <v>0.05938488245010376</v>
+        <v>0.1006909161806107</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -9303,10 +9303,10 @@
         <v>0.924293041229248</v>
       </c>
       <c r="V125" t="n">
-        <v>0.471180647611618</v>
+        <v>0.4903286695480347</v>
       </c>
       <c r="W125" t="n">
-        <v>0.2053108364343643</v>
+        <v>0.1883250772953033</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -9374,10 +9374,10 @@
         <v>0.8812448978424072</v>
       </c>
       <c r="V126" t="n">
-        <v>0.6046534776687622</v>
+        <v>0.5051225423812866</v>
       </c>
       <c r="W126" t="n">
-        <v>0.07650281488895416</v>
+        <v>0.1414680331945419</v>
       </c>
     </row>
     <row r="127" spans="1:23">
@@ -9445,10 +9445,10 @@
         <v>0.8682968616485596</v>
       </c>
       <c r="V127" t="n">
-        <v>0.4706680178642273</v>
+        <v>0.9576004147529602</v>
       </c>
       <c r="W127" t="n">
-        <v>0.1581086963415146</v>
+        <v>0.007975124754011631</v>
       </c>
     </row>
     <row r="128" spans="1:23">
@@ -9516,10 +9516,10 @@
         <v>0.8637440204620361</v>
       </c>
       <c r="V128" t="n">
-        <v>0.6457363367080688</v>
+        <v>0.9888245463371277</v>
       </c>
       <c r="W128" t="n">
-        <v>0.04752735048532486</v>
+        <v>0.01564513705670834</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -9587,10 +9587,10 @@
         <v>0.9166011810302734</v>
       </c>
       <c r="V129" t="n">
-        <v>0.6047799587249756</v>
+        <v>0.5319736003875732</v>
       </c>
       <c r="W129" t="n">
-        <v>0.09723247587680817</v>
+        <v>0.1479383707046509</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -9658,10 +9658,10 @@
         <v>0.8681149482727051</v>
       </c>
       <c r="V130" t="n">
-        <v>0.5042864084243774</v>
+        <v>0.9521044492721558</v>
       </c>
       <c r="W130" t="n">
-        <v>0.1323712021112442</v>
+        <v>0.007054236251860857</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -9729,10 +9729,10 @@
         <v>0.8701992034912109</v>
       </c>
       <c r="V131" t="n">
-        <v>0.8181720972061157</v>
+        <v>0.8927434086799622</v>
       </c>
       <c r="W131" t="n">
-        <v>0.002706819679588079</v>
+        <v>0.0005082411807961762</v>
       </c>
     </row>
     <row r="132" spans="1:23">
@@ -9800,10 +9800,10 @@
         <v>0.8728101253509521</v>
       </c>
       <c r="V132" t="n">
-        <v>0.6243352890014648</v>
+        <v>0.8818982243537903</v>
       </c>
       <c r="W132" t="n">
-        <v>0.06173974275588989</v>
+        <v>8.259354217443615e-05</v>
       </c>
     </row>
     <row r="133" spans="1:23">
@@ -9871,10 +9871,10 @@
         <v>0.9349958896636963</v>
       </c>
       <c r="V133" t="n">
-        <v>0.4707935154438019</v>
+        <v>0.8724231123924255</v>
       </c>
       <c r="W133" t="n">
-        <v>0.2154838442802429</v>
+        <v>0.003915352281183004</v>
       </c>
     </row>
     <row r="134" spans="1:23">
@@ -9942,10 +9942,10 @@
         <v>0.8658528327941895</v>
       </c>
       <c r="V134" t="n">
-        <v>0.5714279413223267</v>
+        <v>0.4920749664306641</v>
       </c>
       <c r="W134" t="n">
-        <v>0.08668601512908936</v>
+        <v>0.1397098898887634</v>
       </c>
     </row>
     <row r="135" spans="1:23">
@@ -10013,10 +10013,10 @@
         <v>0.8889091014862061</v>
       </c>
       <c r="V135" t="n">
-        <v>0.6195765733718872</v>
+        <v>0.4769375324249268</v>
       </c>
       <c r="W135" t="n">
-        <v>0.07254000753164291</v>
+        <v>0.1697205752134323</v>
       </c>
     </row>
     <row r="136" spans="1:23">
@@ -10084,10 +10084,10 @@
         <v>0.8659360408782959</v>
       </c>
       <c r="V136" t="n">
-        <v>0.4360244274139404</v>
+        <v>0.4870151281356812</v>
       </c>
       <c r="W136" t="n">
-        <v>0.1848239898681641</v>
+        <v>0.1435810625553131</v>
       </c>
     </row>
     <row r="137" spans="1:23">
@@ -10155,10 +10155,10 @@
         <v>0.9085118770599365</v>
       </c>
       <c r="V137" t="n">
-        <v>0.4813840687274933</v>
+        <v>0.4726362228393555</v>
       </c>
       <c r="W137" t="n">
-        <v>0.1824381649494171</v>
+        <v>0.1899875849485397</v>
       </c>
     </row>
     <row r="138" spans="1:23">
@@ -10226,10 +10226,10 @@
         <v>0.8685460090637207</v>
       </c>
       <c r="V138" t="n">
-        <v>0.3785330653190613</v>
+        <v>0.4725204706192017</v>
       </c>
       <c r="W138" t="n">
-        <v>0.240112692117691</v>
+        <v>0.1568362265825272</v>
       </c>
     </row>
     <row r="139" spans="1:23">
@@ -10297,10 +10297,10 @@
         <v>0.8666300773620605</v>
       </c>
       <c r="V139" t="n">
-        <v>0.4360273480415344</v>
+        <v>0.477914571762085</v>
       </c>
       <c r="W139" t="n">
-        <v>0.1854187101125717</v>
+        <v>0.1510997414588928</v>
       </c>
     </row>
     <row r="140" spans="1:23">
@@ -10368,10 +10368,10 @@
         <v>0.8716700077056885</v>
       </c>
       <c r="V140" t="n">
-        <v>0.4543018043041229</v>
+        <v>0.4782499074935913</v>
       </c>
       <c r="W140" t="n">
-        <v>0.1741962134838104</v>
+        <v>0.1547793745994568</v>
       </c>
     </row>
     <row r="141" spans="1:23">
@@ -10439,10 +10439,10 @@
         <v>0.8764889240264893</v>
       </c>
       <c r="V141" t="n">
-        <v>0.4584724307060242</v>
+        <v>0.499794065952301</v>
       </c>
       <c r="W141" t="n">
-        <v>0.1747377812862396</v>
+        <v>0.1418990194797516</v>
       </c>
     </row>
     <row r="142" spans="1:23">
@@ -10510,10 +10510,10 @@
         <v>0.5386559963226318</v>
       </c>
       <c r="V142" t="n">
-        <v>0.474732518196106</v>
+        <v>0.5086674690246582</v>
       </c>
       <c r="W142" t="n">
-        <v>0.004086210858076811</v>
+        <v>0.0008993117953650653</v>
       </c>
     </row>
     <row r="143" spans="1:23">
@@ -10581,10 +10581,10 @@
         <v>0.5247409343719482</v>
       </c>
       <c r="V143" t="n">
-        <v>0.5013586282730103</v>
+        <v>0.8791272640228271</v>
       </c>
       <c r="W143" t="n">
-        <v>0.0005467322189360857</v>
+        <v>0.1255896687507629</v>
       </c>
     </row>
     <row r="144" spans="1:23">
@@ -10652,10 +10652,10 @@
         <v>0.5225751399993896</v>
       </c>
       <c r="V144" t="n">
-        <v>0.4873129427433014</v>
+        <v>0.9321442246437073</v>
       </c>
       <c r="W144" t="n">
-        <v>0.001243422506377101</v>
+        <v>0.1677468419075012</v>
       </c>
     </row>
     <row r="145" spans="1:23">
@@ -10723,10 +10723,10 @@
         <v>0.5220029354095459</v>
       </c>
       <c r="V145" t="n">
-        <v>0.816550612449646</v>
+        <v>0.5049384832382202</v>
       </c>
       <c r="W145" t="n">
-        <v>0.0867583304643631</v>
+        <v>0.0002911955234594643</v>
       </c>
     </row>
     <row r="146" spans="1:23">
@@ -10794,10 +10794,10 @@
         <v>0.5225028991699219</v>
       </c>
       <c r="V146" t="n">
-        <v>0.6568613052368164</v>
+        <v>0.4867702126502991</v>
       </c>
       <c r="W146" t="n">
-        <v>0.01805218122899532</v>
+        <v>0.001276824856176972</v>
       </c>
     </row>
     <row r="147" spans="1:23">
@@ -10865,10 +10865,10 @@
         <v>0.5472099781036377</v>
       </c>
       <c r="V147" t="n">
-        <v>0.4551306962966919</v>
+        <v>0.4757274985313416</v>
       </c>
       <c r="W147" t="n">
-        <v>0.00847859401255846</v>
+        <v>0.00510974507778883</v>
       </c>
     </row>
     <row r="148" spans="1:23">
@@ -10936,10 +10936,10 @@
         <v>0.5197908878326416</v>
       </c>
       <c r="V148" t="n">
-        <v>0.435836523771286</v>
+        <v>0.467468798160553</v>
       </c>
       <c r="W148" t="n">
-        <v>0.007048335392028093</v>
+        <v>0.002737601054832339</v>
       </c>
     </row>
     <row r="149" spans="1:23">
@@ -11007,10 +11007,10 @@
         <v>0.5209581851959229</v>
       </c>
       <c r="V149" t="n">
-        <v>0.6469850540161133</v>
+        <v>0.8590336441993713</v>
       </c>
       <c r="W149" t="n">
-        <v>0.01588277146220207</v>
+        <v>0.1142950132489204</v>
       </c>
     </row>
     <row r="150" spans="1:23">
@@ -11078,10 +11078,10 @@
         <v>0.5238840579986572</v>
       </c>
       <c r="V150" t="n">
-        <v>0.5758230686187744</v>
+        <v>0.5317379832267761</v>
       </c>
       <c r="W150" t="n">
-        <v>0.002697660820558667</v>
+        <v>6.16841425653547e-05</v>
       </c>
     </row>
     <row r="151" spans="1:23">
@@ -11149,10 +11149,10 @@
         <v>0.5739820003509521</v>
       </c>
       <c r="V151" t="n">
-        <v>0.4360179901123047</v>
+        <v>0.9545150399208069</v>
       </c>
       <c r="W151" t="n">
-        <v>0.01903406903147697</v>
+        <v>0.1448054015636444</v>
       </c>
     </row>
     <row r="152" spans="1:23">
@@ -11220,10 +11220,10 @@
         <v>0.5397231578826904</v>
       </c>
       <c r="V152" t="n">
-        <v>0.5043182373046875</v>
+        <v>0.8835918307304382</v>
       </c>
       <c r="W152" t="n">
-        <v>0.001253508380614221</v>
+        <v>0.1182456612586975</v>
       </c>
     </row>
     <row r="153" spans="1:23">
@@ -11291,10 +11291,10 @@
         <v>0.5232088565826416</v>
       </c>
       <c r="V153" t="n">
-        <v>0.4707594513893127</v>
+        <v>0.9094977378845215</v>
       </c>
       <c r="W153" t="n">
-        <v>0.002750940155237913</v>
+        <v>0.1492190957069397</v>
       </c>
     </row>
     <row r="154" spans="1:23">
@@ -11362,10 +11362,10 @@
         <v>0.5157310962677002</v>
       </c>
       <c r="V154" t="n">
-        <v>0.7316849231719971</v>
+        <v>0.4757102131843567</v>
       </c>
       <c r="W154" t="n">
-        <v>0.04663605615496635</v>
+        <v>0.001601671101525426</v>
       </c>
     </row>
     <row r="155" spans="1:23">
@@ -11433,10 +11433,10 @@
         <v>0.5568740367889404</v>
       </c>
       <c r="V155" t="n">
-        <v>0.57613205909729</v>
+        <v>0.5260027050971985</v>
       </c>
       <c r="W155" t="n">
-        <v>0.0003708714211825281</v>
+        <v>0.0009530390962027013</v>
       </c>
     </row>
     <row r="156" spans="1:23">
@@ -11504,10 +11504,10 @@
         <v>0.5757579803466797</v>
       </c>
       <c r="V156" t="n">
-        <v>0.4576598405838013</v>
+        <v>0.4956962466239929</v>
       </c>
       <c r="W156" t="n">
-        <v>0.01394717022776604</v>
+        <v>0.006409881170839071</v>
       </c>
     </row>
     <row r="157" spans="1:23">
@@ -11575,10 +11575,10 @@
         <v>0.5227727890014648</v>
       </c>
       <c r="V157" t="n">
-        <v>0.6187922954559326</v>
+        <v>0.4866198301315308</v>
       </c>
       <c r="W157" t="n">
-        <v>0.009219745174050331</v>
+        <v>0.001307036378420889</v>
       </c>
     </row>
     <row r="158" spans="1:23">
@@ -11646,10 +11646,10 @@
         <v>0.5240509510040283</v>
       </c>
       <c r="V158" t="n">
-        <v>0.8119169473648071</v>
+        <v>0.5519171357154846</v>
       </c>
       <c r="W158" t="n">
-        <v>0.08286683261394501</v>
+        <v>0.0007765242480672896</v>
       </c>
     </row>
     <row r="159" spans="1:23">
@@ -11717,10 +11717,10 @@
         <v>0.5239291191101074</v>
       </c>
       <c r="V159" t="n">
-        <v>0.7337785959243774</v>
+        <v>0.9833208918571472</v>
       </c>
       <c r="W159" t="n">
-        <v>0.04403680190443993</v>
+        <v>0.2110407948493958</v>
       </c>
     </row>
     <row r="160" spans="1:23">
@@ -11788,10 +11788,10 @@
         <v>0.5254712104797363</v>
       </c>
       <c r="V160" t="n">
-        <v>0.6167548894882202</v>
+        <v>0.4663463234901428</v>
       </c>
       <c r="W160" t="n">
-        <v>0.008332709781825542</v>
+        <v>0.003495752345770597</v>
       </c>
     </row>
     <row r="161" spans="1:23">
@@ -11859,10 +11859,10 @@
         <v>0.5345959663391113</v>
       </c>
       <c r="V161" t="n">
-        <v>0.6851100921630859</v>
+        <v>0.5599701404571533</v>
       </c>
       <c r="W161" t="n">
-        <v>0.02265450172126293</v>
+        <v>0.0006438487325794995</v>
       </c>
     </row>
     <row r="162" spans="1:23">
@@ -11930,10 +11930,10 @@
         <v>0.3972549438476562</v>
       </c>
       <c r="V162" t="n">
-        <v>0.5545951128005981</v>
+        <v>0.4669237732887268</v>
       </c>
       <c r="W162" t="n">
-        <v>0.02475592866539955</v>
+        <v>0.004853745922446251</v>
       </c>
     </row>
     <row r="163" spans="1:23">
@@ -12001,10 +12001,10 @@
         <v>0.3993558883666992</v>
       </c>
       <c r="V163" t="n">
-        <v>0.6570971012115479</v>
+        <v>0.8791815042495728</v>
       </c>
       <c r="W163" t="n">
-        <v>0.06643053144216537</v>
+        <v>0.2302326261997223</v>
       </c>
     </row>
     <row r="164" spans="1:23">
@@ -12072,10 +12072,10 @@
         <v>0.3915700912475586</v>
       </c>
       <c r="V164" t="n">
-        <v>0.5573711395263672</v>
+        <v>0.943691074848175</v>
       </c>
       <c r="W164" t="n">
-        <v>0.02748998813331127</v>
+        <v>0.3048375844955444</v>
       </c>
     </row>
     <row r="165" spans="1:23">
@@ -12143,10 +12143,10 @@
         <v>0.3959598541259766</v>
       </c>
       <c r="V165" t="n">
-        <v>0.5682737827301025</v>
+        <v>0.9302027225494385</v>
       </c>
       <c r="W165" t="n">
-        <v>0.02969208918511868</v>
+        <v>0.2854154407978058</v>
       </c>
     </row>
     <row r="166" spans="1:23">
@@ -12214,10 +12214,10 @@
         <v>0.3907840251922607</v>
       </c>
       <c r="V166" t="n">
-        <v>0.551414966583252</v>
+        <v>0.5320224761962891</v>
       </c>
       <c r="W166" t="n">
-        <v>0.02580229938030243</v>
+        <v>0.01994829997420311</v>
       </c>
     </row>
     <row r="167" spans="1:23">
@@ -12285,10 +12285,10 @@
         <v>0.397007942199707</v>
       </c>
       <c r="V167" t="n">
-        <v>0.6185418367385864</v>
+        <v>0.882585346698761</v>
       </c>
       <c r="W167" t="n">
-        <v>0.04907726496458054</v>
+        <v>0.2357854098081589</v>
       </c>
     </row>
     <row r="168" spans="1:23">
@@ -12356,10 +12356,10 @@
         <v>0.3916471004486084</v>
       </c>
       <c r="V168" t="n">
-        <v>0.6190664768218994</v>
+        <v>0.9414885640144348</v>
       </c>
       <c r="W168" t="n">
-        <v>0.05171957239508629</v>
+        <v>0.3023256361484528</v>
       </c>
     </row>
     <row r="169" spans="1:23">
@@ -12427,10 +12427,10 @@
         <v>0.3939988613128662</v>
       </c>
       <c r="V169" t="n">
-        <v>0.4576936960220337</v>
+        <v>0.505286693572998</v>
       </c>
       <c r="W169" t="n">
-        <v>0.004057032056152821</v>
+        <v>0.0123849818482995</v>
       </c>
     </row>
     <row r="170" spans="1:23">
@@ -12498,10 +12498,10 @@
         <v>0.3940389156341553</v>
       </c>
       <c r="V170" t="n">
-        <v>0.6196457147598267</v>
+        <v>0.9127255082130432</v>
       </c>
       <c r="W170" t="n">
-        <v>0.05089842900633812</v>
+        <v>0.2690357863903046</v>
       </c>
     </row>
     <row r="171" spans="1:23">
@@ -12569,10 +12569,10 @@
         <v>0.3923470973968506</v>
       </c>
       <c r="V171" t="n">
-        <v>0.4864535331726074</v>
+        <v>0.5041507482528687</v>
       </c>
       <c r="W171" t="n">
-        <v>0.008856020867824554</v>
+        <v>0.01250005606561899</v>
       </c>
     </row>
     <row r="172" spans="1:23">
@@ -12640,10 +12640,10 @@
         <v>0.3923449516296387</v>
       </c>
       <c r="V172" t="n">
-        <v>0.4575594365596771</v>
+        <v>0.5520784258842468</v>
       </c>
       <c r="W172" t="n">
-        <v>0.004252929240465164</v>
+        <v>0.02551478333771229</v>
       </c>
     </row>
     <row r="173" spans="1:23">
@@ -12711,10 +12711,10 @@
         <v>0.3955531120300293</v>
       </c>
       <c r="V173" t="n">
-        <v>0.5686811208724976</v>
+        <v>0.4783183932304382</v>
       </c>
       <c r="W173" t="n">
-        <v>0.02997330762445927</v>
+        <v>0.006850091740489006</v>
       </c>
     </row>
     <row r="174" spans="1:23">
@@ -12782,10 +12782,10 @@
         <v>0.4331440925598145</v>
       </c>
       <c r="V174" t="n">
-        <v>0.4581899344921112</v>
+        <v>0.9509248733520508</v>
       </c>
       <c r="W174" t="n">
-        <v>0.0006272941827774048</v>
+        <v>0.268096923828125</v>
       </c>
     </row>
     <row r="175" spans="1:23">
@@ -12853,10 +12853,10 @@
         <v>0.3962390422821045</v>
       </c>
       <c r="V175" t="n">
-        <v>0.7538954019546509</v>
+        <v>0.8806386590003967</v>
       </c>
       <c r="W175" t="n">
-        <v>0.1279180645942688</v>
+        <v>0.2346429824829102</v>
       </c>
     </row>
     <row r="176" spans="1:23">
@@ -12924,10 +12924,10 @@
         <v>0.3955960273742676</v>
       </c>
       <c r="V176" t="n">
-        <v>0.6420996189117432</v>
+        <v>0.8682898879051208</v>
       </c>
       <c r="W176" t="n">
-        <v>0.06076402217149734</v>
+        <v>0.223439484834671</v>
       </c>
     </row>
     <row r="177" spans="1:23">
@@ -12995,10 +12995,10 @@
         <v>0.396122932434082</v>
       </c>
       <c r="V177" t="n">
-        <v>0.6168749332427979</v>
+        <v>0.477369487285614</v>
       </c>
       <c r="W177" t="n">
-        <v>0.04873144626617432</v>
+        <v>0.006601002532988787</v>
       </c>
     </row>
     <row r="178" spans="1:23">
@@ -13066,10 +13066,10 @@
         <v>0.3964598178863525</v>
       </c>
       <c r="V178" t="n">
-        <v>0.5535620450973511</v>
+        <v>0.533901035785675</v>
       </c>
       <c r="W178" t="n">
-        <v>0.02468110993504524</v>
+        <v>0.01889008842408657</v>
       </c>
     </row>
     <row r="179" spans="1:23">
@@ -13137,10 +13137,10 @@
         <v>0.3940629959106445</v>
       </c>
       <c r="V179" t="n">
-        <v>0.4360246360301971</v>
+        <v>0.4848590493202209</v>
       </c>
       <c r="W179" t="n">
-        <v>0.001760779297910631</v>
+        <v>0.00824392307549715</v>
       </c>
     </row>
     <row r="180" spans="1:23">
@@ -13208,10 +13208,10 @@
         <v>0.4558289051055908</v>
       </c>
       <c r="V180" t="n">
-        <v>0.3785422742366791</v>
+        <v>0.9108355641365051</v>
       </c>
       <c r="W180" t="n">
-        <v>0.005973223131150007</v>
+        <v>0.2070310562849045</v>
       </c>
     </row>
     <row r="181" spans="1:23">
@@ -13279,10 +13279,10 @@
         <v>0.4228651523590088</v>
       </c>
       <c r="V181" t="n">
-        <v>0.8164882659912109</v>
+        <v>0.4734858870506287</v>
       </c>
       <c r="W181" t="n">
-        <v>0.1549391597509384</v>
+        <v>0.002562458859756589</v>
       </c>
     </row>
     <row r="182" spans="1:23">
@@ -13350,10 +13350,10 @@
         <v>0.8833620548248291</v>
       </c>
       <c r="V182" t="n">
-        <v>0.4641658961772919</v>
+        <v>0.4679903388023376</v>
       </c>
       <c r="W182" t="n">
-        <v>0.1757254153490067</v>
+        <v>0.1725336611270905</v>
       </c>
     </row>
     <row r="183" spans="1:23">
@@ -13421,10 +13421,10 @@
         <v>0.8755478858947754</v>
       </c>
       <c r="V183" t="n">
-        <v>0.6435973644256592</v>
+        <v>0.4677309393882751</v>
       </c>
       <c r="W183" t="n">
-        <v>0.0538010448217392</v>
+        <v>0.1663146615028381</v>
       </c>
     </row>
     <row r="184" spans="1:23">
@@ -13492,10 +13492,10 @@
         <v>0.9169979095458984</v>
       </c>
       <c r="V184" t="n">
-        <v>0.6437071561813354</v>
+        <v>0.5520490407943726</v>
       </c>
       <c r="W184" t="n">
-        <v>0.07468783855438232</v>
+        <v>0.1331876814365387</v>
       </c>
     </row>
     <row r="185" spans="1:23">
@@ -13563,10 +13563,10 @@
         <v>0.8850200176239014</v>
       </c>
       <c r="V185" t="n">
-        <v>0.4553817808628082</v>
+        <v>0.8833064436912537</v>
       </c>
       <c r="W185" t="n">
-        <v>0.1845890134572983</v>
+        <v>2.936335704362136e-06</v>
       </c>
     </row>
     <row r="186" spans="1:23">
@@ -13634,10 +13634,10 @@
         <v>0.8756339550018311</v>
       </c>
       <c r="V186" t="n">
-        <v>0.6210951805114746</v>
+        <v>0.9266618490219116</v>
       </c>
       <c r="W186" t="n">
-        <v>0.06478998810052872</v>
+        <v>0.002603845903649926</v>
       </c>
     </row>
     <row r="187" spans="1:23">
@@ -13705,10 +13705,10 @@
         <v>0.8836569786071777</v>
       </c>
       <c r="V187" t="n">
-        <v>0.6568361520767212</v>
+        <v>0.4952979683876038</v>
       </c>
       <c r="W187" t="n">
-        <v>0.05144768580794334</v>
+        <v>0.150822713971138</v>
       </c>
     </row>
     <row r="188" spans="1:23">
@@ -13776,10 +13776,10 @@
         <v>0.9283440113067627</v>
       </c>
       <c r="V188" t="n">
-        <v>0.3778295516967773</v>
+        <v>0.4899508357048035</v>
       </c>
       <c r="W188" t="n">
-        <v>0.3030661642551422</v>
+        <v>0.1921885758638382</v>
       </c>
     </row>
     <row r="189" spans="1:23">
@@ -13847,10 +13847,10 @@
         <v>0.8767180442810059</v>
       </c>
       <c r="V189" t="n">
-        <v>0.4759599268436432</v>
+        <v>0.9093677401542664</v>
       </c>
       <c r="W189" t="n">
-        <v>0.1606070697307587</v>
+        <v>0.001066002645529807</v>
       </c>
     </row>
     <row r="190" spans="1:23">
@@ -13918,10 +13918,10 @@
         <v>0.8711369037628174</v>
       </c>
       <c r="V190" t="n">
-        <v>0.4582692682743073</v>
+        <v>0.8898128867149353</v>
       </c>
       <c r="W190" t="n">
-        <v>0.1704596877098083</v>
+        <v>0.0003487923531793058</v>
       </c>
     </row>
     <row r="191" spans="1:23">
@@ -13989,10 +13989,10 @@
         <v>0.8779048919677734</v>
       </c>
       <c r="V191" t="n">
-        <v>0.7251691818237305</v>
+        <v>0.9182423949241638</v>
       </c>
       <c r="W191" t="n">
-        <v>0.02332819625735283</v>
+        <v>0.00162711413577199</v>
       </c>
     </row>
     <row r="192" spans="1:23">
@@ -14060,10 +14060,10 @@
         <v>0.919517993927002</v>
       </c>
       <c r="V192" t="n">
-        <v>0.4588357210159302</v>
+        <v>0.4982350468635559</v>
       </c>
       <c r="W192" t="n">
-        <v>0.2122281491756439</v>
+        <v>0.1774793267250061</v>
       </c>
     </row>
     <row r="193" spans="1:23">
@@ -14131,10 +14131,10 @@
         <v>0.8804140090942383</v>
       </c>
       <c r="V193" t="n">
-        <v>0.5531672239303589</v>
+        <v>0.4773997664451599</v>
       </c>
       <c r="W193" t="n">
-        <v>0.1070904582738876</v>
+        <v>0.1624204814434052</v>
       </c>
     </row>
     <row r="194" spans="1:23">
@@ -14202,10 +14202,10 @@
         <v>0.8698029518127441</v>
       </c>
       <c r="V194" t="n">
-        <v>0.630542516708374</v>
+        <v>0.9047231674194336</v>
       </c>
       <c r="W194" t="n">
-        <v>0.05724555626511574</v>
+        <v>0.001219421508722007</v>
       </c>
     </row>
     <row r="195" spans="1:23">
@@ -14273,10 +14273,10 @@
         <v>0.8719689846038818</v>
       </c>
       <c r="V195" t="n">
-        <v>0.5041597485542297</v>
+        <v>0.4729400873184204</v>
       </c>
       <c r="W195" t="n">
-        <v>0.1352836340665817</v>
+        <v>0.1592240631580353</v>
       </c>
     </row>
     <row r="196" spans="1:23">
@@ -14344,10 +14344,10 @@
         <v>0.917996883392334</v>
       </c>
       <c r="V196" t="n">
-        <v>0.436014860868454</v>
+        <v>0.4706705808639526</v>
       </c>
       <c r="W196" t="n">
-        <v>0.2323066741228104</v>
+        <v>0.2001008242368698</v>
       </c>
     </row>
     <row r="197" spans="1:23">
@@ -14415,10 +14415,10 @@
         <v>0.8720180988311768</v>
       </c>
       <c r="V197" t="n">
-        <v>0.4641267657279968</v>
+        <v>0.4900463223457336</v>
       </c>
       <c r="W197" t="n">
-        <v>0.1663753390312195</v>
+        <v>0.1459024399518967</v>
       </c>
     </row>
     <row r="198" spans="1:23">
@@ -14486,10 +14486,10 @@
         <v>0.8734560012817383</v>
       </c>
       <c r="V198" t="n">
-        <v>0.6237491369247437</v>
+        <v>0.9192468523979187</v>
       </c>
       <c r="W198" t="n">
-        <v>0.06235351786017418</v>
+        <v>0.002096801996231079</v>
       </c>
     </row>
     <row r="199" spans="1:23">
@@ -14557,10 +14557,10 @@
         <v>0.8730437755584717</v>
       </c>
       <c r="V199" t="n">
-        <v>0.8121641874313354</v>
+        <v>0.8855398297309875</v>
       </c>
       <c r="W199" t="n">
-        <v>0.003706324147060513</v>
+        <v>0.0001561513636261225</v>
       </c>
     </row>
     <row r="200" spans="1:23">
@@ -14628,10 +14628,10 @@
         <v>0.9236700534820557</v>
       </c>
       <c r="V200" t="n">
-        <v>0.473930835723877</v>
+        <v>0.4775730967521667</v>
       </c>
       <c r="W200" t="n">
-        <v>0.2022653669118881</v>
+        <v>0.1990024894475937</v>
       </c>
     </row>
     <row r="201" spans="1:23">
@@ -14699,10 +14699,10 @@
         <v>0.8841438293457031</v>
       </c>
       <c r="V201" t="n">
-        <v>0.4356223046779633</v>
+        <v>0.4769304990768433</v>
       </c>
       <c r="W201" t="n">
-        <v>0.2011715620756149</v>
+        <v>0.1658226996660233</v>
       </c>
     </row>
     <row r="202" spans="1:23">
@@ -14770,10 +14770,10 @@
         <v>0.5266070365905762</v>
       </c>
       <c r="V202" t="n">
-        <v>0.4755290746688843</v>
+        <v>0.8647908568382263</v>
       </c>
       <c r="W202" t="n">
-        <v>0.002608958166092634</v>
+        <v>0.1143682971596718</v>
       </c>
     </row>
     <row r="203" spans="1:23">
@@ -14841,10 +14841,10 @@
         <v>0.5214660167694092</v>
       </c>
       <c r="V203" t="n">
-        <v>0.8187797069549561</v>
+        <v>0.4668397903442383</v>
       </c>
       <c r="W203" t="n">
-        <v>0.08839543163776398</v>
+        <v>0.002984024584293365</v>
       </c>
     </row>
     <row r="204" spans="1:23">
@@ -14912,10 +14912,10 @@
         <v>0.5417530536651611</v>
       </c>
       <c r="V204" t="n">
-        <v>0.5526690483093262</v>
+        <v>0.471285879611969</v>
       </c>
       <c r="W204" t="n">
-        <v>0.0001191589399240911</v>
+        <v>0.004965622443705797</v>
       </c>
     </row>
     <row r="205" spans="1:23">
@@ -14983,10 +14983,10 @@
         <v>0.5228371620178223</v>
       </c>
       <c r="V205" t="n">
-        <v>0.6608701944351196</v>
+        <v>0.9221706390380859</v>
       </c>
       <c r="W205" t="n">
-        <v>0.01905311830341816</v>
+        <v>0.1594672203063965</v>
       </c>
     </row>
     <row r="206" spans="1:23">
@@ -15054,10 +15054,10 @@
         <v>0.5441110134124756</v>
       </c>
       <c r="V206" t="n">
-        <v>0.5506994724273682</v>
+        <v>0.5261029005050659</v>
       </c>
       <c r="W206" t="n">
-        <v>4.340779196354561e-05</v>
+        <v>0.0003242921375203878</v>
       </c>
     </row>
     <row r="207" spans="1:23">
@@ -15125,10 +15125,10 @@
         <v>0.5244998931884766</v>
       </c>
       <c r="V207" t="n">
-        <v>0.5011930465698242</v>
+        <v>0.512657105922699</v>
       </c>
       <c r="W207" t="n">
-        <v>0.0005432090838439763</v>
+        <v>0.0001402516063535586</v>
       </c>
     </row>
     <row r="208" spans="1:23">
@@ -15196,10 +15196,10 @@
         <v>0.5188829898834229</v>
       </c>
       <c r="V208" t="n">
-        <v>0.6241397857666016</v>
+        <v>0.9557187557220459</v>
       </c>
       <c r="W208" t="n">
-        <v>0.01107899285852909</v>
+        <v>0.190825492143631</v>
       </c>
     </row>
     <row r="209" spans="1:23">
@@ -15267,10 +15267,10 @@
         <v>0.5189719200134277</v>
       </c>
       <c r="V209" t="n">
-        <v>0.4746897518634796</v>
+        <v>0.478559136390686</v>
       </c>
       <c r="W209" t="n">
-        <v>0.001960910391062498</v>
+        <v>0.001633193111047149</v>
       </c>
     </row>
     <row r="210" spans="1:23">
@@ -15338,10 +15338,10 @@
         <v>0.5803229808807373</v>
       </c>
       <c r="V210" t="n">
-        <v>0.5687457323074341</v>
+        <v>0.4728543758392334</v>
       </c>
       <c r="W210" t="n">
-        <v>0.0001340326853096485</v>
+        <v>0.01154950074851513</v>
       </c>
     </row>
     <row r="211" spans="1:23">
@@ -15409,10 +15409,10 @@
         <v>0.535944938659668</v>
       </c>
       <c r="V211" t="n">
-        <v>0.6239811182022095</v>
+        <v>0.8934565186500549</v>
       </c>
       <c r="W211" t="n">
-        <v>0.007750368677079678</v>
+        <v>0.1278145313262939</v>
       </c>
     </row>
     <row r="212" spans="1:23">
@@ -15480,10 +15480,10 @@
         <v>0.5287878513336182</v>
       </c>
       <c r="V212" t="n">
-        <v>0.4360238015651703</v>
+        <v>0.5605000853538513</v>
       </c>
       <c r="W212" t="n">
-        <v>0.008605169132351875</v>
+        <v>0.001005665748380125</v>
       </c>
     </row>
     <row r="213" spans="1:23">
@@ -15551,10 +15551,10 @@
         <v>0.52211594581604</v>
       </c>
       <c r="V213" t="n">
-        <v>0.6847788095474243</v>
+        <v>0.5272282958030701</v>
       </c>
       <c r="W213" t="n">
-        <v>0.02645920775830746</v>
+        <v>2.613612196000759e-05</v>
       </c>
     </row>
     <row r="214" spans="1:23">
@@ -15622,10 +15622,10 @@
         <v>0.526771068572998</v>
       </c>
       <c r="V214" t="n">
-        <v>0.624763011932373</v>
+        <v>0.5316640734672546</v>
       </c>
       <c r="W214" t="n">
-        <v>0.009602420963346958</v>
+        <v>2.394149669271428e-05</v>
       </c>
     </row>
     <row r="215" spans="1:23">
@@ -15693,10 +15693,10 @@
         <v>0.5894331932067871</v>
       </c>
       <c r="V215" t="n">
-        <v>0.8164883852005005</v>
+        <v>0.4744240641593933</v>
       </c>
       <c r="W215" t="n">
-        <v>0.05155406147241592</v>
+        <v>0.01322709955275059</v>
       </c>
     </row>
     <row r="216" spans="1:23">
@@ -15764,10 +15764,10 @@
         <v>0.5496680736541748</v>
       </c>
       <c r="V216" t="n">
-        <v>0.4356837570667267</v>
+        <v>0.9494934678077698</v>
       </c>
       <c r="W216" t="n">
-        <v>0.01299242489039898</v>
+        <v>0.1598603427410126</v>
       </c>
     </row>
     <row r="217" spans="1:23">
@@ -15835,10 +15835,10 @@
         <v>0.5268151760101318</v>
       </c>
       <c r="V217" t="n">
-        <v>0.6275705099105835</v>
+        <v>0.4848458766937256</v>
       </c>
       <c r="W217" t="n">
-        <v>0.01015163771808147</v>
+        <v>0.001761422026902437</v>
       </c>
     </row>
     <row r="218" spans="1:23">
@@ -15906,10 +15906,10 @@
         <v>0.5363750457763672</v>
       </c>
       <c r="V218" t="n">
-        <v>0.4360189139842987</v>
+        <v>0.9099423289299011</v>
       </c>
       <c r="W218" t="n">
-        <v>0.01007135305553675</v>
+        <v>0.1395525187253952</v>
       </c>
     </row>
     <row r="219" spans="1:23">
@@ -15977,10 +15977,10 @@
         <v>0.5629749298095703</v>
       </c>
       <c r="V219" t="n">
-        <v>0.6580631732940674</v>
+        <v>0.8908659815788269</v>
       </c>
       <c r="W219" t="n">
-        <v>0.009041774086654186</v>
+        <v>0.107512541115284</v>
       </c>
     </row>
     <row r="220" spans="1:23">
@@ -16048,10 +16048,10 @@
         <v>0.5319931507110596</v>
       </c>
       <c r="V220" t="n">
-        <v>0.4660023748874664</v>
+        <v>0.9447237253189087</v>
       </c>
       <c r="W220" t="n">
-        <v>0.004354782402515411</v>
+        <v>0.1703465282917023</v>
       </c>
     </row>
     <row r="221" spans="1:23">
@@ -16119,10 +16119,10 @@
         <v>0.5279269218444824</v>
       </c>
       <c r="V221" t="n">
-        <v>0.4420330226421356</v>
+        <v>0.5338842868804932</v>
       </c>
       <c r="W221" t="n">
-        <v>0.007377761881798506</v>
+        <v>3.54901967511978e-05</v>
       </c>
     </row>
     <row r="222" spans="1:23">
@@ -16190,10 +16190,10 @@
         <v>0.397244930267334</v>
       </c>
       <c r="V222" t="n">
-        <v>0.6530184745788574</v>
+        <v>0.9431479573249817</v>
       </c>
       <c r="W222" t="n">
-        <v>0.06542010605335236</v>
+        <v>0.2980101108551025</v>
       </c>
     </row>
     <row r="223" spans="1:23">
@@ -16261,10 +16261,10 @@
         <v>0.3915078639984131</v>
       </c>
       <c r="V223" t="n">
-        <v>0.8163976669311523</v>
+        <v>0.531635582447052</v>
       </c>
       <c r="W223" t="n">
-        <v>0.1805313378572464</v>
+        <v>0.01963577792048454</v>
       </c>
     </row>
     <row r="224" spans="1:23">
@@ -16332,10 +16332,10 @@
         <v>0.3939077854156494</v>
       </c>
       <c r="V224" t="n">
-        <v>0.569115161895752</v>
+        <v>0.5337740182876587</v>
       </c>
       <c r="W224" t="n">
-        <v>0.03069762513041496</v>
+        <v>0.01956256292760372</v>
       </c>
     </row>
     <row r="225" spans="1:23">
@@ -16403,10 +16403,10 @@
         <v>0.3916800022125244</v>
       </c>
       <c r="V225" t="n">
-        <v>0.6584680080413818</v>
+        <v>0.5164896249771118</v>
       </c>
       <c r="W225" t="n">
-        <v>0.07117584347724915</v>
+        <v>0.01557744201272726</v>
       </c>
     </row>
     <row r="226" spans="1:23">
@@ -16474,10 +16474,10 @@
         <v>0.4328830242156982</v>
       </c>
       <c r="V226" t="n">
-        <v>0.6602040529251099</v>
+        <v>0.5382175445556641</v>
       </c>
       <c r="W226" t="n">
-        <v>0.05167485028505325</v>
+        <v>0.01109536085277796</v>
       </c>
     </row>
     <row r="227" spans="1:23">
@@ -16545,10 +16545,10 @@
         <v>0.3996849060058594</v>
       </c>
       <c r="V227" t="n">
-        <v>0.6209926605224609</v>
+        <v>0.4990039467811584</v>
       </c>
       <c r="W227" t="n">
-        <v>0.04897712171077728</v>
+        <v>0.009864271618425846</v>
       </c>
     </row>
     <row r="228" spans="1:23">
@@ -16616,10 +16616,10 @@
         <v>0.4040250778198242</v>
       </c>
       <c r="V228" t="n">
-        <v>0.5677254199981689</v>
+        <v>0.5263816118240356</v>
       </c>
       <c r="W228" t="n">
-        <v>0.02679780125617981</v>
+        <v>0.0149711212143302</v>
       </c>
     </row>
     <row r="229" spans="1:23">
@@ -16687,10 +16687,10 @@
         <v>0.4079239368438721</v>
       </c>
       <c r="V229" t="n">
-        <v>0.8187210559844971</v>
+        <v>0.5319100022315979</v>
       </c>
       <c r="W229" t="n">
-        <v>0.1687542796134949</v>
+        <v>0.01537254452705383</v>
       </c>
     </row>
     <row r="230" spans="1:23">
@@ -16758,10 +16758,10 @@
         <v>0.3933310508728027</v>
       </c>
       <c r="V230" t="n">
-        <v>0.4558286666870117</v>
+        <v>0.48255455493927</v>
       </c>
       <c r="W230" t="n">
-        <v>0.003905951976776123</v>
+        <v>0.007960833609104156</v>
       </c>
     </row>
     <row r="231" spans="1:23">
@@ -16829,10 +16829,10 @@
         <v>0.3949780464172363</v>
       </c>
       <c r="V231" t="n">
-        <v>0.4536274671554565</v>
+        <v>0.8757099509239197</v>
       </c>
       <c r="W231" t="n">
-        <v>0.003439754480496049</v>
+        <v>0.2311031669378281</v>
       </c>
     </row>
     <row r="232" spans="1:23">
@@ -16900,10 +16900,10 @@
         <v>0.4021458625793457</v>
       </c>
       <c r="V232" t="n">
-        <v>0.5235501527786255</v>
+        <v>0.9114457964897156</v>
       </c>
       <c r="W232" t="n">
-        <v>0.01473900210112333</v>
+        <v>0.259386420249939</v>
       </c>
     </row>
     <row r="233" spans="1:23">
@@ -16971,10 +16971,10 @@
         <v>0.3998990058898926</v>
       </c>
       <c r="V233" t="n">
-        <v>0.5520607233047485</v>
+        <v>0.5583227276802063</v>
       </c>
       <c r="W233" t="n">
-        <v>0.02315318770706654</v>
+        <v>0.02509807609021664</v>
       </c>
     </row>
     <row r="234" spans="1:23">
@@ -17042,10 +17042,10 @@
         <v>0.405724048614502</v>
       </c>
       <c r="V234" t="n">
-        <v>0.505409836769104</v>
+        <v>0.9093999266624451</v>
       </c>
       <c r="W234" t="n">
-        <v>0.009937256574630737</v>
+        <v>0.2536893784999847</v>
       </c>
     </row>
     <row r="235" spans="1:23">
@@ -17113,10 +17113,10 @@
         <v>0.3973929882049561</v>
       </c>
       <c r="V235" t="n">
-        <v>0.5160707235336304</v>
+        <v>0.8675137162208557</v>
       </c>
       <c r="W235" t="n">
-        <v>0.0140844052657485</v>
+        <v>0.2210135012865067</v>
       </c>
     </row>
     <row r="236" spans="1:23">
@@ -17184,10 +17184,10 @@
         <v>0.39900803565979</v>
       </c>
       <c r="V236" t="n">
-        <v>0.4761776030063629</v>
+        <v>0.4783259034156799</v>
       </c>
       <c r="W236" t="n">
-        <v>0.005955141969025135</v>
+        <v>0.006291324272751808</v>
       </c>
     </row>
     <row r="237" spans="1:23">
@@ -17255,10 +17255,10 @@
         <v>0.3923060894012451</v>
       </c>
       <c r="V237" t="n">
-        <v>0.3900977373123169</v>
+        <v>0.4715138077735901</v>
       </c>
       <c r="W237" t="n">
-        <v>4.876818820775952e-06</v>
+        <v>0.006273862440139055</v>
       </c>
     </row>
     <row r="238" spans="1:23">
@@ -17326,10 +17326,10 @@
         <v>0.3889281749725342</v>
       </c>
       <c r="V238" t="n">
-        <v>0.6257683038711548</v>
+        <v>0.5522967576980591</v>
       </c>
       <c r="W238" t="n">
-        <v>0.0560932457447052</v>
+        <v>0.02668929472565651</v>
       </c>
     </row>
     <row r="239" spans="1:23">
@@ -17397,10 +17397,10 @@
         <v>0.3951809406280518</v>
       </c>
       <c r="V239" t="n">
-        <v>0.4664293229579926</v>
+        <v>0.5521317720413208</v>
       </c>
       <c r="W239" t="n">
-        <v>0.00507633201777935</v>
+        <v>0.02463356405496597</v>
       </c>
     </row>
     <row r="240" spans="1:23">
@@ -17468,10 +17468,10 @@
         <v>0.39736008644104</v>
       </c>
       <c r="V240" t="n">
-        <v>0.5545165538787842</v>
+        <v>0.4824552536010742</v>
       </c>
       <c r="W240" t="n">
-        <v>0.02469815500080585</v>
+        <v>0.007241187617182732</v>
       </c>
     </row>
     <row r="241" spans="1:23">
@@ -17539,10 +17539,10 @@
         <v>0.3951489925384521</v>
       </c>
       <c r="V241" t="n">
-        <v>0.3819113075733185</v>
+        <v>0.4701916575431824</v>
       </c>
       <c r="W241" t="n">
-        <v>0.0001752363023115322</v>
+        <v>0.005631401669234037</v>
       </c>
     </row>
     <row r="242" spans="1:23">
@@ -17610,10 +17610,10 @@
         <v>0.8929769992828369</v>
       </c>
       <c r="V242" t="n">
-        <v>0.5535465478897095</v>
+        <v>0.882739782333374</v>
       </c>
       <c r="W242" t="n">
-        <v>0.1152130290865898</v>
+        <v>0.0001048006088240072</v>
       </c>
     </row>
     <row r="243" spans="1:23">
@@ -17681,10 +17681,10 @@
         <v>0.8785910606384277</v>
       </c>
       <c r="V243" t="n">
-        <v>0.5615204572677612</v>
+        <v>0.4674651622772217</v>
       </c>
       <c r="W243" t="n">
-        <v>0.1005337685346603</v>
+        <v>0.1690244972705841</v>
       </c>
     </row>
     <row r="244" spans="1:23">
@@ -17752,10 +17752,10 @@
         <v>0.879249095916748</v>
       </c>
       <c r="V244" t="n">
-        <v>0.4550628066062927</v>
+        <v>0.4724429845809937</v>
       </c>
       <c r="W244" t="n">
-        <v>0.1799340099096298</v>
+        <v>0.1654912084341049</v>
       </c>
     </row>
     <row r="245" spans="1:23">
@@ -17823,10 +17823,10 @@
         <v>0.8834140300750732</v>
       </c>
       <c r="V245" t="n">
-        <v>0.6241402626037598</v>
+        <v>0.5002743601799011</v>
       </c>
       <c r="W245" t="n">
-        <v>0.06722288578748703</v>
+        <v>0.1467960029840469</v>
       </c>
     </row>
     <row r="246" spans="1:23">
@@ -17894,10 +17894,10 @@
         <v>0.875234842300415</v>
       </c>
       <c r="V246" t="n">
-        <v>0.6238876581192017</v>
+        <v>0.4831963181495667</v>
       </c>
       <c r="W246" t="n">
-        <v>0.06317541003227234</v>
+        <v>0.1536941975355148</v>
       </c>
     </row>
     <row r="247" spans="1:23">
@@ -17965,10 +17965,10 @@
         <v>0.9250237941741943</v>
       </c>
       <c r="V247" t="n">
-        <v>0.8231332302093506</v>
+        <v>0.4952684044837952</v>
       </c>
       <c r="W247" t="n">
-        <v>0.01038168743252754</v>
+        <v>0.1846897006034851</v>
       </c>
     </row>
     <row r="248" spans="1:23">
@@ -18036,10 +18036,10 @@
         <v>0.8970799446105957</v>
       </c>
       <c r="V248" t="n">
-        <v>0.8231731653213501</v>
+        <v>0.5120707750320435</v>
       </c>
       <c r="W248" t="n">
-        <v>0.005462212022393942</v>
+        <v>0.1482320576906204</v>
       </c>
     </row>
     <row r="249" spans="1:23">
@@ -18107,10 +18107,10 @@
         <v>0.882411003112793</v>
       </c>
       <c r="V249" t="n">
-        <v>0.390147477388382</v>
+        <v>0.9588021039962769</v>
       </c>
       <c r="W249" t="n">
-        <v>0.2423233836889267</v>
+        <v>0.005835600197315216</v>
       </c>
     </row>
     <row r="250" spans="1:23">
@@ -18178,10 +18178,10 @@
         <v>0.8718051910400391</v>
       </c>
       <c r="V250" t="n">
-        <v>0.6605738401412964</v>
+        <v>0.4734658002853394</v>
       </c>
       <c r="W250" t="n">
-        <v>0.04461868479847908</v>
+        <v>0.1586742699146271</v>
       </c>
     </row>
     <row r="251" spans="1:23">
@@ -18249,10 +18249,10 @@
         <v>1.004710912704468</v>
       </c>
       <c r="V251" t="n">
-        <v>0.6252998113632202</v>
+        <v>0.9142764210700989</v>
       </c>
       <c r="W251" t="n">
-        <v>0.1439527869224548</v>
+        <v>0.008178397081792355</v>
       </c>
     </row>
     <row r="252" spans="1:23">
@@ -18320,10 +18320,10 @@
         <v>1.061408042907715</v>
       </c>
       <c r="V252" t="n">
-        <v>0.4422197341918945</v>
+        <v>0.5337079763412476</v>
       </c>
       <c r="W252" t="n">
-        <v>0.3833941519260406</v>
+        <v>0.2784673571586609</v>
       </c>
     </row>
     <row r="253" spans="1:23">
@@ -18391,10 +18391,10 @@
         <v>0.8926548957824707</v>
       </c>
       <c r="V253" t="n">
-        <v>0.7368419170379639</v>
+        <v>0.5029840469360352</v>
       </c>
       <c r="W253" t="n">
-        <v>0.02427768521010876</v>
+        <v>0.1518433690071106</v>
       </c>
     </row>
     <row r="254" spans="1:23">
@@ -18462,10 +18462,10 @@
         <v>0.8992478847503662</v>
       </c>
       <c r="V254" t="n">
-        <v>0.4660579562187195</v>
+        <v>0.4672708511352539</v>
       </c>
       <c r="W254" t="n">
-        <v>0.187653511762619</v>
+        <v>0.1866041570901871</v>
       </c>
     </row>
     <row r="255" spans="1:23">
@@ -18533,10 +18533,10 @@
         <v>0.9490199089050293</v>
       </c>
       <c r="V255" t="n">
-        <v>0.6213923692703247</v>
+        <v>0.8856428861618042</v>
       </c>
       <c r="W255" t="n">
-        <v>0.1073398068547249</v>
+        <v>0.00401664711534977</v>
       </c>
     </row>
     <row r="256" spans="1:23">
@@ -18604,10 +18604,10 @@
         <v>0.8883821964263916</v>
       </c>
       <c r="V256" t="n">
-        <v>0.6570550203323364</v>
+        <v>0.4710172414779663</v>
       </c>
       <c r="W256" t="n">
-        <v>0.05351226404309273</v>
+        <v>0.1741935014724731</v>
       </c>
     </row>
     <row r="257" spans="1:23">
@@ -18675,10 +18675,10 @@
         <v>0.8981759548187256</v>
       </c>
       <c r="V257" t="n">
-        <v>0.5529001951217651</v>
+        <v>0.5316339135169983</v>
       </c>
       <c r="W257" t="n">
-        <v>0.1192153468728065</v>
+        <v>0.1343530714511871</v>
       </c>
     </row>
     <row r="258" spans="1:23">
@@ -18746,10 +18746,10 @@
         <v>0.8828940391540527</v>
       </c>
       <c r="V258" t="n">
-        <v>0.3793536722660065</v>
+        <v>0.4768806099891663</v>
       </c>
       <c r="W258" t="n">
-        <v>0.2535529434680939</v>
+        <v>0.1648469120264053</v>
       </c>
     </row>
     <row r="259" spans="1:23">
@@ -18817,10 +18817,10 @@
         <v>0.9129691123962402</v>
       </c>
       <c r="V259" t="n">
-        <v>0.6213033199310303</v>
+        <v>0.5176034569740295</v>
       </c>
       <c r="W259" t="n">
-        <v>0.08506893366575241</v>
+        <v>0.1563140004873276</v>
       </c>
     </row>
     <row r="260" spans="1:23">
@@ -18888,10 +18888,10 @@
         <v>0.8786218166351318</v>
       </c>
       <c r="V260" t="n">
-        <v>0.551541268825531</v>
+        <v>0.5521956086158752</v>
       </c>
       <c r="W260" t="n">
-        <v>0.1069816872477531</v>
+        <v>0.1065540686249733</v>
       </c>
     </row>
     <row r="261" spans="1:23">
@@ -18959,10 +18959,10 @@
         <v>0.8955340385437012</v>
       </c>
       <c r="V261" t="n">
-        <v>0.4363715648651123</v>
+        <v>0.5170220136642456</v>
       </c>
       <c r="W261" t="n">
-        <v>0.2108301818370819</v>
+        <v>0.1432713568210602</v>
       </c>
     </row>
     <row r="262" spans="1:23">
@@ -19030,10 +19030,10 @@
         <v>0.5531089305877686</v>
       </c>
       <c r="V262" t="n">
-        <v>0.4360882639884949</v>
+        <v>0.4757140874862671</v>
       </c>
       <c r="W262" t="n">
-        <v>0.01369383651763201</v>
+        <v>0.005989961791783571</v>
       </c>
     </row>
     <row r="263" spans="1:23">
@@ -19101,10 +19101,10 @@
         <v>0.6277599334716797</v>
       </c>
       <c r="V263" t="n">
-        <v>0.4741716682910919</v>
+        <v>0.4952002763748169</v>
       </c>
       <c r="W263" t="n">
-        <v>0.02358935587108135</v>
+        <v>0.01757206209003925</v>
       </c>
     </row>
     <row r="264" spans="1:23">
@@ -19172,10 +19172,10 @@
         <v>0.5312418937683105</v>
       </c>
       <c r="V264" t="n">
-        <v>0.4582839906215668</v>
+        <v>0.4669684171676636</v>
       </c>
       <c r="W264" t="n">
-        <v>0.005322855431586504</v>
+        <v>0.004131079651415348</v>
       </c>
     </row>
     <row r="265" spans="1:23">
@@ -19243,10 +19243,10 @@
         <v>0.5316398143768311</v>
       </c>
       <c r="V265" t="n">
-        <v>0.6839810609817505</v>
+        <v>0.4668493270874023</v>
       </c>
       <c r="W265" t="n">
-        <v>0.02320785634219646</v>
+        <v>0.004197807051241398</v>
       </c>
     </row>
     <row r="266" spans="1:23">
@@ -19314,10 +19314,10 @@
         <v>0.5339949131011963</v>
       </c>
       <c r="V266" t="n">
-        <v>0.5496547222137451</v>
+        <v>0.9339474439620972</v>
       </c>
       <c r="W266" t="n">
-        <v>0.0002452296321280301</v>
+        <v>0.1599620282649994</v>
       </c>
     </row>
     <row r="267" spans="1:23">
@@ -19385,10 +19385,10 @@
         <v>0.5337541103363037</v>
       </c>
       <c r="V267" t="n">
-        <v>0.6566433906555176</v>
+        <v>0.4648668766021729</v>
       </c>
       <c r="W267" t="n">
-        <v>0.01510177552700043</v>
+        <v>0.004745450802147388</v>
       </c>
     </row>
     <row r="268" spans="1:23">
@@ -19456,10 +19456,10 @@
         <v>0.5894861221313477</v>
       </c>
       <c r="V268" t="n">
-        <v>0.6210076808929443</v>
+        <v>0.5023399591445923</v>
       </c>
       <c r="W268" t="n">
-        <v>0.0009936086134985089</v>
+        <v>0.007594453636556864</v>
       </c>
     </row>
     <row r="269" spans="1:23">
@@ -19527,10 +19527,10 @@
         <v>0.547321081161499</v>
       </c>
       <c r="V269" t="n">
-        <v>0.4643741250038147</v>
+        <v>0.9429301619529724</v>
       </c>
       <c r="W269" t="n">
-        <v>0.006880197674036026</v>
+        <v>0.1565065383911133</v>
       </c>
     </row>
     <row r="270" spans="1:23">
@@ -19598,10 +19598,10 @@
         <v>0.535912036895752</v>
       </c>
       <c r="V270" t="n">
-        <v>0.475897878408432</v>
+        <v>0.4754254817962646</v>
       </c>
       <c r="W270" t="n">
-        <v>0.003601699136197567</v>
+        <v>0.003658623434603214</v>
       </c>
     </row>
     <row r="271" spans="1:23">
@@ -19669,10 +19669,10 @@
         <v>0.526371955871582</v>
       </c>
       <c r="V271" t="n">
-        <v>0.4577381312847137</v>
+        <v>0.5178358554840088</v>
       </c>
       <c r="W271" t="n">
-        <v>0.004710602108389139</v>
+        <v>7.286501204362139e-05</v>
       </c>
     </row>
     <row r="272" spans="1:23">
@@ -19740,10 +19740,10 @@
         <v>0.5662498474121094</v>
       </c>
       <c r="V272" t="n">
-        <v>0.6255502700805664</v>
+        <v>0.4668615460395813</v>
       </c>
       <c r="W272" t="n">
-        <v>0.003516540164127946</v>
+        <v>0.009878034703433514</v>
       </c>
     </row>
     <row r="273" spans="1:23">
@@ -19811,10 +19811,10 @@
         <v>0.5730569362640381</v>
       </c>
       <c r="V273" t="n">
-        <v>0.5067566633224487</v>
+        <v>0.4745744466781616</v>
       </c>
       <c r="W273" t="n">
-        <v>0.004395726136863232</v>
+        <v>0.00969880074262619</v>
       </c>
     </row>
     <row r="274" spans="1:23">
@@ -19882,10 +19882,10 @@
         <v>0.5378789901733398</v>
       </c>
       <c r="V274" t="n">
-        <v>0.5066593885421753</v>
+        <v>0.8824623227119446</v>
       </c>
       <c r="W274" t="n">
-        <v>0.000974663533270359</v>
+        <v>0.1187376752495766</v>
       </c>
     </row>
     <row r="275" spans="1:23">
@@ -19953,10 +19953,10 @@
         <v>0.5280790328979492</v>
       </c>
       <c r="V275" t="n">
-        <v>0.6570440530776978</v>
+        <v>0.5526030659675598</v>
       </c>
       <c r="W275" t="n">
-        <v>0.01663197576999664</v>
+        <v>0.0006014282116666436</v>
       </c>
     </row>
     <row r="276" spans="1:23">
@@ -20024,10 +20024,10 @@
         <v>0.5299570560455322</v>
       </c>
       <c r="V276" t="n">
-        <v>0.4535786509513855</v>
+        <v>0.9437900185585022</v>
       </c>
       <c r="W276" t="n">
-        <v>0.005833660718053579</v>
+        <v>0.1712577193975449</v>
       </c>
     </row>
     <row r="277" spans="1:23">
@@ -20095,10 +20095,10 @@
         <v>0.5287628173828125</v>
       </c>
       <c r="V277" t="n">
-        <v>0.4739275276660919</v>
+        <v>0.4768199324607849</v>
       </c>
       <c r="W277" t="n">
-        <v>0.003006909042596817</v>
+        <v>0.002698063384741545</v>
       </c>
     </row>
     <row r="278" spans="1:23">
@@ -20166,10 +20166,10 @@
         <v>0.5274009704589844</v>
       </c>
       <c r="V278" t="n">
-        <v>0.56879723072052</v>
+        <v>0.4767751693725586</v>
       </c>
       <c r="W278" t="n">
-        <v>0.001713650417514145</v>
+        <v>0.002562971785664558</v>
       </c>
     </row>
     <row r="279" spans="1:23">
@@ -20237,10 +20237,10 @@
         <v>0.5293171405792236</v>
       </c>
       <c r="V279" t="n">
-        <v>0.7365775108337402</v>
+        <v>0.498526930809021</v>
       </c>
       <c r="W279" t="n">
-        <v>0.04295686259865761</v>
+        <v>0.0009480370208621025</v>
       </c>
     </row>
     <row r="280" spans="1:23">
@@ -20308,10 +20308,10 @@
         <v>0.5236248970031738</v>
       </c>
       <c r="V280" t="n">
-        <v>0.6190383434295654</v>
+        <v>0.5263881087303162</v>
       </c>
       <c r="W280" t="n">
-        <v>0.009103725664317608</v>
+        <v>7.635338988620788e-06</v>
       </c>
     </row>
     <row r="281" spans="1:23">
@@ -20379,10 +20379,10 @@
         <v>0.5271949768066406</v>
       </c>
       <c r="V281" t="n">
-        <v>0.4360241889953613</v>
+        <v>0.5121226906776428</v>
       </c>
       <c r="W281" t="n">
-        <v>0.008312112651765347</v>
+        <v>0.0002271738048875704</v>
       </c>
     </row>
     <row r="282" spans="1:23">
@@ -20450,10 +20450,10 @@
         <v>0.4166510105133057</v>
       </c>
       <c r="V282" t="n">
-        <v>0.551807165145874</v>
+        <v>0.4767943024635315</v>
       </c>
       <c r="W282" t="n">
-        <v>0.01826718635857105</v>
+        <v>0.003617215668782592</v>
       </c>
     </row>
     <row r="283" spans="1:23">
@@ -20521,10 +20521,10 @@
         <v>0.4005398750305176</v>
       </c>
       <c r="V283" t="n">
-        <v>0.5017784237861633</v>
+        <v>0.5338842868804932</v>
       </c>
       <c r="W283" t="n">
-        <v>0.01024924404919147</v>
+        <v>0.01778073236346245</v>
       </c>
     </row>
     <row r="284" spans="1:23">
@@ -20592,10 +20592,10 @@
         <v>0.450901985168457</v>
       </c>
       <c r="V284" t="n">
-        <v>0.8160817623138428</v>
+        <v>0.5325441360473633</v>
       </c>
       <c r="W284" t="n">
-        <v>0.1333562731742859</v>
+        <v>0.006665440741926432</v>
       </c>
     </row>
     <row r="285" spans="1:23">
@@ -20663,10 +20663,10 @@
         <v>0.4034860134124756</v>
       </c>
       <c r="V285" t="n">
-        <v>0.6434009075164795</v>
+        <v>0.4774230122566223</v>
       </c>
       <c r="W285" t="n">
-        <v>0.05755915492773056</v>
+        <v>0.005466679576784372</v>
       </c>
     </row>
     <row r="286" spans="1:23">
@@ -20734,10 +20734,10 @@
         <v>0.4009947776794434</v>
       </c>
       <c r="V286" t="n">
-        <v>0.5036900043487549</v>
+        <v>0.4783879518508911</v>
       </c>
       <c r="W286" t="n">
-        <v>0.01054630987346172</v>
+        <v>0.005989703349769115</v>
       </c>
     </row>
     <row r="287" spans="1:23">
@@ -20805,10 +20805,10 @@
         <v>0.3992629051208496</v>
       </c>
       <c r="V287" t="n">
-        <v>0.5517270565032959</v>
+        <v>0.4729185700416565</v>
       </c>
       <c r="W287" t="n">
-        <v>0.0232453178614378</v>
+        <v>0.005425157025456429</v>
       </c>
     </row>
     <row r="288" spans="1:23">
@@ -20876,10 +20876,10 @@
         <v>0.4006428718566895</v>
       </c>
       <c r="V288" t="n">
-        <v>0.5523611307144165</v>
+        <v>0.9813873171806335</v>
       </c>
       <c r="W288" t="n">
-        <v>0.02301843091845512</v>
+        <v>0.3372641205787659</v>
       </c>
     </row>
     <row r="289" spans="1:23">
@@ -20947,10 +20947,10 @@
         <v>0.4134471416473389</v>
       </c>
       <c r="V289" t="n">
-        <v>0.4661538004875183</v>
+        <v>0.9583224654197693</v>
       </c>
       <c r="W289" t="n">
-        <v>0.002777991816401482</v>
+        <v>0.2968891263008118</v>
       </c>
     </row>
     <row r="290" spans="1:23">
@@ -21018,10 +21018,10 @@
         <v>0.4300417900085449</v>
       </c>
       <c r="V290" t="n">
-        <v>0.5712623596191406</v>
+        <v>0.5050801634788513</v>
       </c>
       <c r="W290" t="n">
-        <v>0.0199432484805584</v>
+        <v>0.005630757659673691</v>
       </c>
     </row>
     <row r="291" spans="1:23">
@@ -21089,10 +21089,10 @@
         <v>0.4008779525756836</v>
       </c>
       <c r="V291" t="n">
-        <v>0.6009038686752319</v>
+        <v>0.4671368002891541</v>
       </c>
       <c r="W291" t="n">
-        <v>0.04001036658883095</v>
+        <v>0.004390235058963299</v>
       </c>
     </row>
     <row r="292" spans="1:23">
@@ -21160,10 +21160,10 @@
         <v>0.400914192199707</v>
       </c>
       <c r="V292" t="n">
-        <v>0.5517981052398682</v>
+        <v>0.9564158320426941</v>
       </c>
       <c r="W292" t="n">
-        <v>0.02276595495641232</v>
+        <v>0.308582067489624</v>
       </c>
     </row>
     <row r="293" spans="1:23">
@@ -21231,10 +21231,10 @@
         <v>0.4005739688873291</v>
       </c>
       <c r="V293" t="n">
-        <v>0.458252340555191</v>
+        <v>0.4851952791213989</v>
       </c>
       <c r="W293" t="n">
-        <v>0.003326794598251581</v>
+        <v>0.007160766050219536</v>
       </c>
     </row>
     <row r="294" spans="1:23">
@@ -21302,10 +21302,10 @@
         <v>0.3969550132751465</v>
       </c>
       <c r="V294" t="n">
-        <v>0.5521078109741211</v>
+        <v>0.9441196322441101</v>
       </c>
       <c r="W294" t="n">
-        <v>0.02407239004969597</v>
+        <v>0.299389123916626</v>
       </c>
     </row>
     <row r="295" spans="1:23">
@@ -21373,10 +21373,10 @@
         <v>0.3967490196228027</v>
       </c>
       <c r="V295" t="n">
-        <v>0.6890506744384766</v>
+        <v>0.5519396066665649</v>
       </c>
       <c r="W295" t="n">
-        <v>0.0854402557015419</v>
+        <v>0.02408411912620068</v>
       </c>
     </row>
     <row r="296" spans="1:23">
@@ -21444,10 +21444,10 @@
         <v>0.3970170021057129</v>
       </c>
       <c r="V296" t="n">
-        <v>0.4542677104473114</v>
+        <v>0.9423373937606812</v>
       </c>
       <c r="W296" t="n">
-        <v>0.003277643583714962</v>
+        <v>0.2973743379116058</v>
       </c>
     </row>
     <row r="297" spans="1:23">
@@ -21515,10 +21515,10 @@
         <v>0.400076150894165</v>
       </c>
       <c r="V297" t="n">
-        <v>0.7324898242950439</v>
+        <v>0.4693799614906311</v>
       </c>
       <c r="W297" t="n">
-        <v>0.1104988530278206</v>
+        <v>0.004803018178790808</v>
       </c>
     </row>
     <row r="298" spans="1:23">
@@ -21586,10 +21586,10 @@
         <v>0.3999190330505371</v>
       </c>
       <c r="V298" t="n">
-        <v>0.6880613565444946</v>
+        <v>0.4777509570121765</v>
       </c>
       <c r="W298" t="n">
-        <v>0.08302599936723709</v>
+        <v>0.006057808175683022</v>
       </c>
     </row>
     <row r="299" spans="1:23">
@@ -21657,10 +21657,10 @@
         <v>0.4065620899200439</v>
       </c>
       <c r="V299" t="n">
-        <v>0.6280151605606079</v>
+        <v>0.5171923637390137</v>
       </c>
       <c r="W299" t="n">
-        <v>0.04904146119952202</v>
+        <v>0.01223905757069588</v>
       </c>
     </row>
     <row r="300" spans="1:23">
@@ -21728,10 +21728,10 @@
         <v>0.4043889045715332</v>
       </c>
       <c r="V300" t="n">
-        <v>0.4363065361976624</v>
+        <v>0.5524426698684692</v>
       </c>
       <c r="W300" t="n">
-        <v>0.001018735230900347</v>
+        <v>0.02191991731524467</v>
       </c>
     </row>
     <row r="301" spans="1:23">
@@ -21799,10 +21799,10 @@
         <v>0.400001049041748</v>
       </c>
       <c r="V301" t="n">
-        <v>0.4552138149738312</v>
+        <v>0.9278212189674377</v>
       </c>
       <c r="W301" t="n">
-        <v>0.003048449521884322</v>
+        <v>0.2785941362380981</v>
       </c>
     </row>
     <row r="302" spans="1:23">
